--- a/artfynd/Herrbergsliden norr artfynd.xlsx
+++ b/artfynd/Herrbergsliden norr artfynd.xlsx
@@ -1388,32 +1388,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54482693</v>
+        <v>55947773</v>
       </c>
       <c r="B9" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>687107</v>
+        <v>686762</v>
       </c>
       <c r="R9" t="n">
-        <v>7074344</v>
+        <v>7074232</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1473,44 +1473,48 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55947773</v>
+        <v>54482693</v>
       </c>
       <c r="B10" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1520,10 +1524,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>686762</v>
+        <v>687107</v>
       </c>
       <c r="R10" t="n">
-        <v>7074232</v>
+        <v>7074344</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1570,19 +1574,15 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1687,7 +1687,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103509372</v>
+        <v>54482643</v>
       </c>
       <c r="B12" t="n">
         <v>91541</v>
@@ -1718,14 +1718,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>687174</v>
+        <v>686814</v>
       </c>
       <c r="R12" t="n">
-        <v>7074481</v>
+        <v>7074469</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1752,12 +1752,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1768,41 +1768,26 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>55947754</v>
+        <v>54482562</v>
       </c>
       <c r="B13" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1810,21 +1795,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1834,10 +1819,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>686997</v>
+        <v>686521</v>
       </c>
       <c r="R13" t="n">
-        <v>7074884</v>
+        <v>7074555</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1884,26 +1869,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>54482643</v>
+        <v>62031662</v>
       </c>
       <c r="B14" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1911,34 +1892,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>686814</v>
+        <v>687146</v>
       </c>
       <c r="R14" t="n">
-        <v>7074469</v>
+        <v>7074714</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1965,12 +1946,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -1985,22 +1966,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>54482562</v>
+        <v>55947754</v>
       </c>
       <c r="B15" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2008,21 +1989,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2032,10 +2013,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>686521</v>
+        <v>686997</v>
       </c>
       <c r="R15" t="n">
-        <v>7074555</v>
+        <v>7074884</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2082,22 +2063,26 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>62031662</v>
+        <v>103509372</v>
       </c>
       <c r="B16" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2105,34 +2090,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>687146</v>
+        <v>687174</v>
       </c>
       <c r="R16" t="n">
-        <v>7074714</v>
+        <v>7074481</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2159,12 +2144,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2175,26 +2160,41 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>122745476</v>
+        <v>122745444</v>
       </c>
       <c r="B17" t="n">
-        <v>80112</v>
+        <v>91256</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2202,34 +2202,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6462</v>
+        <v>1205</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Utkommentj. SÖ, Ång</t>
+          <t>Lassbodsjön NV, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>687177</v>
+        <v>687037</v>
       </c>
       <c r="R17" t="n">
-        <v>7074582</v>
+        <v>7074126</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>122745444</v>
+        <v>122745476</v>
       </c>
       <c r="B20" t="n">
-        <v>91256</v>
+        <v>80112</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2505,34 +2505,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1205</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Lassbodsjön NV, Ång</t>
+          <t>Utkommentj. SÖ, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>687037</v>
+        <v>687177</v>
       </c>
       <c r="R20" t="n">
-        <v>7074126</v>
+        <v>7074582</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -4800,10 +4800,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>54482321</v>
+        <v>55947759</v>
       </c>
       <c r="B43" t="n">
-        <v>79012</v>
+        <v>91245</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4811,21 +4811,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4835,10 +4835,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>686971</v>
+        <v>686896</v>
       </c>
       <c r="R43" t="n">
-        <v>7074519</v>
+        <v>7074471</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4885,22 +4885,26 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>54482556</v>
+        <v>55947761</v>
       </c>
       <c r="B44" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4908,21 +4912,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4932,10 +4936,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>686915</v>
+        <v>686806</v>
       </c>
       <c r="R44" t="n">
-        <v>7075027</v>
+        <v>7074574</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4982,44 +4986,48 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55947735</v>
+        <v>54482556</v>
       </c>
       <c r="B45" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5029,10 +5037,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>687075</v>
+        <v>686915</v>
       </c>
       <c r="R45" t="n">
-        <v>7074795</v>
+        <v>7075027</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5079,26 +5087,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>55947761</v>
+        <v>54482321</v>
       </c>
       <c r="B46" t="n">
-        <v>91263</v>
+        <v>79012</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5106,21 +5110,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>185</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5130,10 +5134,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>686806</v>
+        <v>686971</v>
       </c>
       <c r="R46" t="n">
-        <v>7074574</v>
+        <v>7074519</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5180,48 +5184,44 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY46" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>55947749</v>
+        <v>55947735</v>
       </c>
       <c r="B47" t="n">
-        <v>91245</v>
+        <v>79987</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5231,10 +5231,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>686990</v>
+        <v>687075</v>
       </c>
       <c r="R47" t="n">
-        <v>7075008</v>
+        <v>7074795</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>55947759</v>
+        <v>55947749</v>
       </c>
       <c r="B48" t="n">
         <v>91245</v>
@@ -5332,10 +5332,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>686896</v>
+        <v>686990</v>
       </c>
       <c r="R48" t="n">
-        <v>7074471</v>
+        <v>7075008</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5701,45 +5701,45 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>122745432</v>
+        <v>54482646</v>
       </c>
       <c r="B52" t="n">
-        <v>91699</v>
+        <v>91541</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>686837</v>
+        <v>687185</v>
       </c>
       <c r="R52" t="n">
-        <v>7074559</v>
+        <v>7074415</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5766,12 +5766,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5786,19 +5786,15 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6004,45 +6000,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54482646</v>
+        <v>122745432</v>
       </c>
       <c r="B55" t="n">
-        <v>91541</v>
+        <v>91699</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>687185</v>
+        <v>686837</v>
       </c>
       <c r="R55" t="n">
-        <v>7074415</v>
+        <v>7074559</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6069,12 +6065,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6089,15 +6085,19 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr"/>
+          <t>Helene Andersson, Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8306,32 +8306,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>55947763</v>
+        <v>54482690</v>
       </c>
       <c r="B78" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8341,10 +8341,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>686788</v>
+        <v>687187</v>
       </c>
       <c r="R78" t="n">
-        <v>7074580</v>
+        <v>7074585</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8391,48 +8391,44 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY78" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>55947753</v>
+        <v>54482466</v>
       </c>
       <c r="B79" t="n">
-        <v>91699</v>
+        <v>91259</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8442,10 +8438,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>686997</v>
+        <v>687192</v>
       </c>
       <c r="R79" t="n">
-        <v>7074885</v>
+        <v>7074559</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8492,48 +8488,44 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY79" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>54482690</v>
+        <v>54482558</v>
       </c>
       <c r="B80" t="n">
-        <v>91699</v>
+        <v>80083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -8543,10 +8535,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>687187</v>
+        <v>686835</v>
       </c>
       <c r="R80" t="n">
-        <v>7074585</v>
+        <v>7074440</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8605,10 +8597,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>54482466</v>
+        <v>54482564</v>
       </c>
       <c r="B81" t="n">
-        <v>91259</v>
+        <v>80083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8616,21 +8608,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8640,10 +8632,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>687192</v>
+        <v>686781</v>
       </c>
       <c r="R81" t="n">
-        <v>7074559</v>
+        <v>7074293</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8702,10 +8694,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>54482558</v>
+        <v>55947763</v>
       </c>
       <c r="B82" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8713,21 +8705,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8737,10 +8729,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>686835</v>
+        <v>686788</v>
       </c>
       <c r="R82" t="n">
-        <v>7074440</v>
+        <v>7074580</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8787,44 +8779,48 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY82" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>54482564</v>
+        <v>55947753</v>
       </c>
       <c r="B83" t="n">
-        <v>80083</v>
+        <v>91699</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -8834,10 +8830,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>686781</v>
+        <v>686997</v>
       </c>
       <c r="R83" t="n">
-        <v>7074293</v>
+        <v>7074885</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -8884,15 +8880,19 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY83" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -11115,10 +11115,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>55947732</v>
+        <v>54482641</v>
       </c>
       <c r="B106" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11126,21 +11126,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -11150,10 +11150,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>687057</v>
+        <v>687182</v>
       </c>
       <c r="R106" t="n">
-        <v>7074691</v>
+        <v>7074584</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -11200,26 +11200,22 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY106" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>62031667</v>
+        <v>54482640</v>
       </c>
       <c r="B107" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11227,34 +11223,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>686976</v>
+        <v>687195</v>
       </c>
       <c r="R107" t="n">
-        <v>7074930</v>
+        <v>7074520</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -11281,12 +11277,12 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -11301,22 +11297,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>55947770</v>
+        <v>54482319</v>
       </c>
       <c r="B108" t="n">
-        <v>91263</v>
+        <v>79012</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11324,21 +11320,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5432</v>
+        <v>185</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -11348,10 +11344,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>686637</v>
+        <v>687165</v>
       </c>
       <c r="R108" t="n">
-        <v>7074567</v>
+        <v>7074591</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -11398,26 +11394,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY108" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>54482319</v>
+        <v>54482560</v>
       </c>
       <c r="B109" t="n">
-        <v>79012</v>
+        <v>80083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11425,21 +11417,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -11449,10 +11441,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>687165</v>
+        <v>686819</v>
       </c>
       <c r="R109" t="n">
-        <v>7074591</v>
+        <v>7074573</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -11511,10 +11503,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>54482641</v>
+        <v>62031667</v>
       </c>
       <c r="B110" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11522,34 +11514,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>687182</v>
+        <v>686976</v>
       </c>
       <c r="R110" t="n">
-        <v>7074584</v>
+        <v>7074930</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -11576,12 +11568,12 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -11596,22 +11588,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>54482640</v>
+        <v>55947770</v>
       </c>
       <c r="B111" t="n">
-        <v>91541</v>
+        <v>91263</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11619,21 +11611,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -11643,10 +11635,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>687195</v>
+        <v>686637</v>
       </c>
       <c r="R111" t="n">
-        <v>7074520</v>
+        <v>7074567</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -11693,19 +11685,23 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY111" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>54482560</v>
+        <v>55947732</v>
       </c>
       <c r="B112" t="n">
         <v>80083</v>
@@ -11740,10 +11736,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>686819</v>
+        <v>687057</v>
       </c>
       <c r="R112" t="n">
-        <v>7074573</v>
+        <v>7074691</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -11790,57 +11786,61 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY112" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>122745442</v>
+        <v>122745452</v>
       </c>
       <c r="B113" t="n">
-        <v>91241</v>
+        <v>91256</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1108</v>
+        <v>1205</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Koloni- SÖ, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>687155</v>
+        <v>687107</v>
       </c>
       <c r="R113" t="n">
-        <v>7074280</v>
+        <v>7074318</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -11903,10 +11903,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>122745452</v>
+        <v>122745466</v>
       </c>
       <c r="B114" t="n">
-        <v>91256</v>
+        <v>91210</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11914,34 +11914,34 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1205</v>
+        <v>5447</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>687107</v>
+        <v>687076</v>
       </c>
       <c r="R114" t="n">
-        <v>7074318</v>
+        <v>7074569</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -12004,45 +12004,45 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>122745466</v>
+        <v>122745442</v>
       </c>
       <c r="B115" t="n">
-        <v>91210</v>
+        <v>91241</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>5447</v>
+        <v>1108</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Koloni- SÖ, Ång</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>687076</v>
+        <v>687155</v>
       </c>
       <c r="R115" t="n">
-        <v>7074569</v>
+        <v>7074280</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -12408,10 +12408,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>54482390</v>
+        <v>54482811</v>
       </c>
       <c r="B119" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12419,21 +12419,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -12443,10 +12443,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>687148</v>
+        <v>686751</v>
       </c>
       <c r="R119" t="n">
-        <v>7074647</v>
+        <v>7074598</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -12505,7 +12505,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>54482811</v>
+        <v>54482810</v>
       </c>
       <c r="B120" t="n">
         <v>91245</v>
@@ -12540,10 +12540,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>686751</v>
+        <v>686823</v>
       </c>
       <c r="R120" t="n">
-        <v>7074598</v>
+        <v>7074458</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -12602,10 +12602,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>54482810</v>
+        <v>54482390</v>
       </c>
       <c r="B121" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12613,21 +12613,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -12637,10 +12637,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>686823</v>
+        <v>687148</v>
       </c>
       <c r="R121" t="n">
-        <v>7074458</v>
+        <v>7074647</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -13188,10 +13188,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>55947729</v>
+        <v>54482644</v>
       </c>
       <c r="B127" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13199,21 +13199,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -13223,10 +13223,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>687123</v>
+        <v>686791</v>
       </c>
       <c r="R127" t="n">
-        <v>7074638</v>
+        <v>7074583</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -13273,23 +13273,19 @@
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY127" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>55947751</v>
+        <v>55947729</v>
       </c>
       <c r="B128" t="n">
         <v>91245</v>
@@ -13324,10 +13320,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>686971</v>
+        <v>687123</v>
       </c>
       <c r="R128" t="n">
-        <v>7075160</v>
+        <v>7074638</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -13491,10 +13487,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>103509367</v>
+        <v>59127906</v>
       </c>
       <c r="B130" t="n">
-        <v>79987</v>
+        <v>105396</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13502,37 +13498,37 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>6456</v>
+        <v>221144</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
+          <t>Herrbergslidens O-sida strax V dammen över Husån, Ång</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>687143</v>
+        <v>687030</v>
       </c>
       <c r="R130" t="n">
-        <v>7074245</v>
+        <v>7074503</v>
       </c>
       <c r="S130" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -13556,12 +13552,17 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>1969-07-25</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>1969-07-25</t>
+        </is>
+      </c>
+      <c r="AC130" t="inlineStr">
+        <is>
+          <t>Observatör: Mascher, Jan W.</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -13572,41 +13573,30 @@
       </c>
       <c r="AG130" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ130" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK130" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO130" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Stefan Grundström</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY130" t="inlineStr"/>
+          <t>Via Stefan Grundström</t>
+        </is>
+      </c>
+      <c r="AY130" t="inlineStr">
+        <is>
+          <t>Ångermanlands Flora</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>54482644</v>
+        <v>55947751</v>
       </c>
       <c r="B131" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13614,21 +13604,21 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -13638,10 +13628,10 @@
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>686791</v>
+        <v>686971</v>
       </c>
       <c r="R131" t="n">
-        <v>7074583</v>
+        <v>7075160</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -13688,22 +13678,26 @@
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY131" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY131" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>59127906</v>
+        <v>103509367</v>
       </c>
       <c r="B132" t="n">
-        <v>105396</v>
+        <v>79987</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13711,37 +13705,37 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>221144</v>
+        <v>6456</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Herrbergslidens O-sida strax V dammen över Husån, Ång</t>
+          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>687030</v>
+        <v>687143</v>
       </c>
       <c r="R132" t="n">
-        <v>7074503</v>
+        <v>7074245</v>
       </c>
       <c r="S132" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -13765,17 +13759,12 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>1969-07-25</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>1969-07-25</t>
-        </is>
-      </c>
-      <c r="AC132" t="inlineStr">
-        <is>
-          <t>Observatör: Mascher, Jan W.</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -13786,23 +13775,34 @@
       </c>
       <c r="AG132" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO132" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
         <is>
-          <t>Stefan Grundström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Via Stefan Grundström</t>
-        </is>
-      </c>
-      <c r="AY132" t="inlineStr">
-        <is>
-          <t>Ångermanlands Flora</t>
-        </is>
-      </c>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -13907,45 +13907,45 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>54482645</v>
+        <v>62031664</v>
       </c>
       <c r="B134" t="n">
-        <v>91541</v>
+        <v>98361</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>687110</v>
+        <v>687082</v>
       </c>
       <c r="R134" t="n">
-        <v>7074341</v>
+        <v>7074790</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -13972,12 +13972,12 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -13992,57 +13992,57 @@
       <c r="AT134" t="inlineStr"/>
       <c r="AW134" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX134" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AY134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>54482812</v>
+        <v>62031666</v>
       </c>
       <c r="B135" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>686706</v>
+        <v>686997</v>
       </c>
       <c r="R135" t="n">
-        <v>7074655</v>
+        <v>7074884</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -14069,12 +14069,12 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD135" t="b">
@@ -14089,22 +14089,22 @@
       <c r="AT135" t="inlineStr"/>
       <c r="AW135" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX135" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AY135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>55947767</v>
+        <v>54482391</v>
       </c>
       <c r="B136" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -14112,21 +14112,21 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
@@ -14136,10 +14136,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>686750</v>
+        <v>686986</v>
       </c>
       <c r="R136" t="n">
-        <v>7074635</v>
+        <v>7074741</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -14186,26 +14186,22 @@
       <c r="AT136" t="inlineStr"/>
       <c r="AW136" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX136" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY136" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>54482391</v>
+        <v>54482554</v>
       </c>
       <c r="B137" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14213,21 +14209,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -14237,10 +14233,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>686986</v>
+        <v>687016</v>
       </c>
       <c r="R137" t="n">
-        <v>7074741</v>
+        <v>7074800</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -14299,10 +14295,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>54482554</v>
+        <v>54482392</v>
       </c>
       <c r="B138" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14310,21 +14306,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -14334,10 +14330,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>687016</v>
+        <v>686633</v>
       </c>
       <c r="R138" t="n">
-        <v>7074800</v>
+        <v>7074572</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -14396,10 +14392,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>54482392</v>
+        <v>54482645</v>
       </c>
       <c r="B139" t="n">
-        <v>78980</v>
+        <v>91541</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -14407,21 +14403,21 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
@@ -14431,10 +14427,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>686633</v>
+        <v>687110</v>
       </c>
       <c r="R139" t="n">
-        <v>7074572</v>
+        <v>7074341</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -14493,10 +14489,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>55947745</v>
+        <v>54482812</v>
       </c>
       <c r="B140" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14504,21 +14500,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -14528,10 +14524,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>687013</v>
+        <v>686706</v>
       </c>
       <c r="R140" t="n">
-        <v>7074958</v>
+        <v>7074655</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -14578,48 +14574,44 @@
       <c r="AT140" t="inlineStr"/>
       <c r="AW140" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX140" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY140" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>55947764</v>
+        <v>55947745</v>
       </c>
       <c r="B141" t="n">
-        <v>91210</v>
+        <v>91541</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>5447</v>
+        <v>658</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -14629,10 +14621,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>686769</v>
+        <v>687013</v>
       </c>
       <c r="R141" t="n">
-        <v>7074590</v>
+        <v>7074958</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -14695,32 +14687,32 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>55947740</v>
+        <v>55947764</v>
       </c>
       <c r="B142" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
@@ -14730,10 +14722,10 @@
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>687035</v>
+        <v>686769</v>
       </c>
       <c r="R142" t="n">
-        <v>7074797</v>
+        <v>7074590</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -14796,45 +14788,45 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>62031666</v>
+        <v>55947740</v>
       </c>
       <c r="B143" t="n">
-        <v>91699</v>
+        <v>80083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>686997</v>
+        <v>687035</v>
       </c>
       <c r="R143" t="n">
-        <v>7074884</v>
+        <v>7074797</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -14861,12 +14853,12 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD143" t="b">
@@ -14881,57 +14873,61 @@
       <c r="AT143" t="inlineStr"/>
       <c r="AW143" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX143" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
-        </is>
-      </c>
-      <c r="AY143" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY143" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>62031664</v>
+        <v>55947767</v>
       </c>
       <c r="B144" t="n">
-        <v>98361</v>
+        <v>91263</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>220787</v>
+        <v>5432</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>687082</v>
+        <v>686750</v>
       </c>
       <c r="R144" t="n">
-        <v>7074790</v>
+        <v>7074635</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -14958,12 +14954,12 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD144" t="b">
@@ -14978,15 +14974,19 @@
       <c r="AT144" t="inlineStr"/>
       <c r="AW144" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX144" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
-        </is>
-      </c>
-      <c r="AY144" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY144" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -15192,10 +15192,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>122745430</v>
+        <v>122745462</v>
       </c>
       <c r="B147" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15203,34 +15203,34 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>686803</v>
+        <v>687089</v>
       </c>
       <c r="R147" t="n">
-        <v>7074562</v>
+        <v>7074523</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -15495,10 +15495,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>122745462</v>
+        <v>122745430</v>
       </c>
       <c r="B150" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -15506,34 +15506,34 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>687089</v>
+        <v>686803</v>
       </c>
       <c r="R150" t="n">
-        <v>7074523</v>
+        <v>7074562</v>
       </c>
       <c r="S150" t="n">
         <v>10</v>
@@ -16310,32 +16310,32 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>55947748</v>
+        <v>54482495</v>
       </c>
       <c r="B158" t="n">
-        <v>91245</v>
+        <v>80043</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1202</v>
+        <v>229497</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -16345,10 +16345,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>687005</v>
+        <v>686659</v>
       </c>
       <c r="R158" t="n">
-        <v>7074994</v>
+        <v>7074677</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -16395,48 +16395,44 @@
       <c r="AT158" t="inlineStr"/>
       <c r="AW158" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX158" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY158" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>55947728</v>
+        <v>55947739</v>
       </c>
       <c r="B159" t="n">
-        <v>91210</v>
+        <v>80083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -16446,10 +16442,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>687194</v>
+        <v>687012</v>
       </c>
       <c r="R159" t="n">
-        <v>7074493</v>
+        <v>7074860</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -16512,10 +16508,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>55947739</v>
+        <v>55947748</v>
       </c>
       <c r="B160" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16523,21 +16519,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -16547,10 +16543,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>687012</v>
+        <v>687005</v>
       </c>
       <c r="R160" t="n">
-        <v>7074860</v>
+        <v>7074994</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -16613,10 +16609,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>54482495</v>
+        <v>55947728</v>
       </c>
       <c r="B161" t="n">
-        <v>80043</v>
+        <v>91210</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16624,21 +16620,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>229497</v>
+        <v>5447</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -16648,10 +16644,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>686659</v>
+        <v>687194</v>
       </c>
       <c r="R161" t="n">
-        <v>7074677</v>
+        <v>7074493</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -16698,15 +16694,19 @@
       <c r="AT161" t="inlineStr"/>
       <c r="AW161" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX161" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY161" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY161" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -17013,32 +17013,32 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>122745449</v>
+        <v>122745456</v>
       </c>
       <c r="B165" t="n">
-        <v>80043</v>
+        <v>80083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -17048,10 +17048,10 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>687093</v>
+        <v>687062</v>
       </c>
       <c r="R165" t="n">
-        <v>7074223</v>
+        <v>7074442</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -17114,32 +17114,32 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>122745456</v>
+        <v>122745449</v>
       </c>
       <c r="B166" t="n">
-        <v>80083</v>
+        <v>80043</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
@@ -17149,10 +17149,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>687062</v>
+        <v>687093</v>
       </c>
       <c r="R166" t="n">
-        <v>7074442</v>
+        <v>7074223</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>

--- a/artfynd/Herrbergsliden norr artfynd.xlsx
+++ b/artfynd/Herrbergsliden norr artfynd.xlsx
@@ -889,45 +889,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>122745477</v>
+        <v>122745431</v>
       </c>
       <c r="B4" t="n">
-        <v>91245</v>
+        <v>80043</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>229497</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Rullklippen V, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>687188</v>
+        <v>686806</v>
       </c>
       <c r="R4" t="n">
-        <v>7074545</v>
+        <v>7074568</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,45 +990,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>122745431</v>
+        <v>122745477</v>
       </c>
       <c r="B5" t="n">
-        <v>80043</v>
+        <v>91245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229497</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Rullklippen V, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>686806</v>
+        <v>687188</v>
       </c>
       <c r="R5" t="n">
-        <v>7074568</v>
+        <v>7074545</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54482320</v>
+        <v>55947773</v>
       </c>
       <c r="B6" t="n">
-        <v>79012</v>
+        <v>91245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1102,21 +1102,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1126,10 +1126,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>687016</v>
+        <v>686762</v>
       </c>
       <c r="R6" t="n">
-        <v>7074790</v>
+        <v>7074232</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1176,59 +1176,61 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54482889</v>
+        <v>54482693</v>
       </c>
       <c r="B7" t="n">
-        <v>91210</v>
+        <v>91699</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>687194</v>
+        <v>687107</v>
       </c>
       <c r="R7" t="n">
-        <v>7074580</v>
+        <v>7074344</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1269,7 +1271,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1288,7 +1289,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54482890</v>
+        <v>54482889</v>
       </c>
       <c r="B8" t="n">
         <v>91210</v>
@@ -1325,10 +1326,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>686992</v>
+        <v>687194</v>
       </c>
       <c r="R8" t="n">
-        <v>7074885</v>
+        <v>7074580</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1388,45 +1389,47 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>55947773</v>
+        <v>54482890</v>
       </c>
       <c r="B9" t="n">
-        <v>91245</v>
+        <v>91210</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>686762</v>
+        <v>686992</v>
       </c>
       <c r="R9" t="n">
-        <v>7074232</v>
+        <v>7074885</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1467,54 +1470,51 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54482693</v>
+        <v>54482320</v>
       </c>
       <c r="B10" t="n">
-        <v>91699</v>
+        <v>79012</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>185</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>687107</v>
+        <v>687016</v>
       </c>
       <c r="R10" t="n">
-        <v>7074344</v>
+        <v>7074790</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>54482643</v>
+        <v>54482562</v>
       </c>
       <c r="B12" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,21 +1698,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1722,10 +1722,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>686814</v>
+        <v>686521</v>
       </c>
       <c r="R12" t="n">
-        <v>7074469</v>
+        <v>7074555</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>54482562</v>
+        <v>54482643</v>
       </c>
       <c r="B13" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1795,21 +1795,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>686521</v>
+        <v>686814</v>
       </c>
       <c r="R13" t="n">
-        <v>7074555</v>
+        <v>7074469</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>62031662</v>
+        <v>55947754</v>
       </c>
       <c r="B14" t="n">
         <v>91245</v>
@@ -1912,14 +1912,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>687146</v>
+        <v>686997</v>
       </c>
       <c r="R14" t="n">
-        <v>7074714</v>
+        <v>7074884</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1946,12 +1946,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -1966,19 +1966,23 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>55947754</v>
+        <v>62031662</v>
       </c>
       <c r="B15" t="n">
         <v>91245</v>
@@ -2009,14 +2013,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>686997</v>
+        <v>687146</v>
       </c>
       <c r="R15" t="n">
-        <v>7074884</v>
+        <v>7074714</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2043,12 +2047,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2063,19 +2067,15 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Åsa Michold</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2191,45 +2191,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>122745444</v>
+        <v>122745464</v>
       </c>
       <c r="B17" t="n">
-        <v>91256</v>
+        <v>91446</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1205</v>
+        <v>48</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Lassbodsjön NV, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>687037</v>
+        <v>687074</v>
       </c>
       <c r="R17" t="n">
-        <v>7074126</v>
+        <v>7074542</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>122745464</v>
+        <v>122745465</v>
       </c>
       <c r="B18" t="n">
         <v>91446</v>
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>687074</v>
+        <v>687068</v>
       </c>
       <c r="R18" t="n">
-        <v>7074542</v>
+        <v>7074573</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2393,45 +2393,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>122745465</v>
+        <v>122745476</v>
       </c>
       <c r="B19" t="n">
-        <v>91446</v>
+        <v>80112</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Utkommentj. SÖ, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>687068</v>
+        <v>687177</v>
       </c>
       <c r="R19" t="n">
-        <v>7074573</v>
+        <v>7074582</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2494,10 +2494,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>122745476</v>
+        <v>122745444</v>
       </c>
       <c r="B20" t="n">
-        <v>80112</v>
+        <v>91256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2505,34 +2505,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>1205</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Utkommentj. SÖ, Ång</t>
+          <t>Lassbodsjön NV, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>687177</v>
+        <v>687037</v>
       </c>
       <c r="R20" t="n">
-        <v>7074582</v>
+        <v>7074126</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2696,45 +2696,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>54482809</v>
+        <v>62031668</v>
       </c>
       <c r="B22" t="n">
-        <v>91245</v>
+        <v>91256</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>687015</v>
+        <v>687042</v>
       </c>
       <c r="R22" t="n">
-        <v>7074557</v>
+        <v>7074272</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2781,22 +2781,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>55947736</v>
+        <v>86688709</v>
       </c>
       <c r="B23" t="n">
-        <v>91699</v>
+        <v>91446</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2804,34 +2804,41 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1209</v>
+        <v>48</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Romell) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Dammviken, Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>687069</v>
+        <v>687192</v>
       </c>
       <c r="R23" t="n">
-        <v>7074817</v>
+        <v>7074475</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2858,12 +2865,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2872,67 +2879,64 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Karin Häggblad</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Karin Häggblad</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>62031668</v>
+        <v>54482809</v>
       </c>
       <c r="B24" t="n">
-        <v>91256</v>
+        <v>91245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>687042</v>
+        <v>687015</v>
       </c>
       <c r="R24" t="n">
-        <v>7074272</v>
+        <v>7074557</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2959,12 +2963,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2979,22 +2983,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>86688709</v>
+        <v>55947736</v>
       </c>
       <c r="B25" t="n">
-        <v>91446</v>
+        <v>91699</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3002,41 +3006,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>48</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Dammviken, Herrbergsliden, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>687192</v>
+        <v>687069</v>
       </c>
       <c r="R25" t="n">
-        <v>7074475</v>
+        <v>7074817</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3063,12 +3060,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3077,22 +3074,25 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Karin Häggblad</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Karin Häggblad</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3395,32 +3395,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>54482642</v>
+        <v>54482869</v>
       </c>
       <c r="B29" t="n">
-        <v>91541</v>
+        <v>91603</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>2062</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>687077</v>
+        <v>687131</v>
       </c>
       <c r="R29" t="n">
-        <v>7074630</v>
+        <v>7074639</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>54482552</v>
+        <v>54482642</v>
       </c>
       <c r="B30" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,21 +3503,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3527,10 +3527,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>687173</v>
+        <v>687077</v>
       </c>
       <c r="R30" t="n">
-        <v>7074618</v>
+        <v>7074630</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54482563</v>
+        <v>54482552</v>
       </c>
       <c r="B31" t="n">
         <v>80083</v>
@@ -3624,10 +3624,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>686695</v>
+        <v>687173</v>
       </c>
       <c r="R31" t="n">
-        <v>7074260</v>
+        <v>7074618</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>54482555</v>
+        <v>54482563</v>
       </c>
       <c r="B32" t="n">
         <v>80083</v>
@@ -3721,10 +3721,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>686970</v>
+        <v>686695</v>
       </c>
       <c r="R32" t="n">
-        <v>7074800</v>
+        <v>7074260</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3783,32 +3783,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>54482869</v>
+        <v>54482555</v>
       </c>
       <c r="B33" t="n">
-        <v>91603</v>
+        <v>80083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2062</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>687131</v>
+        <v>686970</v>
       </c>
       <c r="R33" t="n">
-        <v>7074639</v>
+        <v>7074800</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3880,10 +3880,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>55947752</v>
+        <v>55947762</v>
       </c>
       <c r="B34" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3891,21 +3891,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>686926</v>
+        <v>686808</v>
       </c>
       <c r="R34" t="n">
-        <v>7074996</v>
+        <v>7074575</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3981,10 +3981,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55947762</v>
+        <v>55947752</v>
       </c>
       <c r="B35" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3992,21 +3992,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4016,10 +4016,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>686808</v>
+        <v>686926</v>
       </c>
       <c r="R35" t="n">
-        <v>7074575</v>
+        <v>7074996</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4082,45 +4082,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>122745425</v>
+        <v>122745448</v>
       </c>
       <c r="B36" t="n">
-        <v>91446</v>
+        <v>91210</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48</v>
+        <v>5447</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Lassbodsjön NV, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>686822</v>
+        <v>687091</v>
       </c>
       <c r="R36" t="n">
-        <v>7074469</v>
+        <v>7074228</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4183,32 +4183,32 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>122745422</v>
+        <v>122745425</v>
       </c>
       <c r="B37" t="n">
-        <v>80043</v>
+        <v>91446</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>229497</v>
+        <v>48</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>686840</v>
+        <v>686822</v>
       </c>
       <c r="R37" t="n">
-        <v>7074274</v>
+        <v>7074469</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>122745448</v>
+        <v>122745422</v>
       </c>
       <c r="B38" t="n">
-        <v>91210</v>
+        <v>80043</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4295,34 +4295,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Lassbodsjön NV, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>687091</v>
+        <v>686840</v>
       </c>
       <c r="R38" t="n">
-        <v>7074228</v>
+        <v>7074274</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>55947756</v>
+        <v>55947741</v>
       </c>
       <c r="B39" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4396,21 +4396,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>687004</v>
+        <v>686988</v>
       </c>
       <c r="R39" t="n">
-        <v>7074557</v>
+        <v>7074878</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4587,10 +4587,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>55947741</v>
+        <v>55947756</v>
       </c>
       <c r="B41" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4598,21 +4598,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>686988</v>
+        <v>687004</v>
       </c>
       <c r="R41" t="n">
-        <v>7074878</v>
+        <v>7074557</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4800,10 +4800,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>55947759</v>
+        <v>54482321</v>
       </c>
       <c r="B43" t="n">
-        <v>91245</v>
+        <v>79012</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4811,21 +4811,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4835,10 +4835,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>686896</v>
+        <v>686971</v>
       </c>
       <c r="R43" t="n">
-        <v>7074471</v>
+        <v>7074519</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4885,26 +4885,22 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>55947761</v>
+        <v>54482556</v>
       </c>
       <c r="B44" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4912,21 +4908,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -4936,10 +4932,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>686806</v>
+        <v>686915</v>
       </c>
       <c r="R44" t="n">
-        <v>7074574</v>
+        <v>7075027</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -4986,26 +4982,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>54482556</v>
+        <v>55947761</v>
       </c>
       <c r="B45" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5013,21 +5005,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5037,10 +5029,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>686915</v>
+        <v>686806</v>
       </c>
       <c r="R45" t="n">
-        <v>7075027</v>
+        <v>7074574</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5087,44 +5079,48 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>54482321</v>
+        <v>55947735</v>
       </c>
       <c r="B46" t="n">
-        <v>79012</v>
+        <v>79987</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>185</v>
+        <v>6456</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5134,10 +5130,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>686971</v>
+        <v>687075</v>
       </c>
       <c r="R46" t="n">
-        <v>7074519</v>
+        <v>7074795</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5184,44 +5180,48 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY46" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>55947735</v>
+        <v>55947749</v>
       </c>
       <c r="B47" t="n">
-        <v>79987</v>
+        <v>91245</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5231,10 +5231,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>687075</v>
+        <v>686990</v>
       </c>
       <c r="R47" t="n">
-        <v>7074795</v>
+        <v>7075008</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>55947749</v>
+        <v>55947759</v>
       </c>
       <c r="B48" t="n">
         <v>91245</v>
@@ -5332,10 +5332,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>686990</v>
+        <v>686896</v>
       </c>
       <c r="R48" t="n">
-        <v>7075008</v>
+        <v>7074471</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5798,45 +5798,45 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>55947757</v>
+        <v>122745432</v>
       </c>
       <c r="B53" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>687007</v>
+        <v>686837</v>
       </c>
       <c r="R53" t="n">
-        <v>7074553</v>
+        <v>7074559</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5863,12 +5863,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5883,48 +5883,48 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr">
         <is>
-          <t>Naturvärdesinventering Y-län</t>
+          <t xml:space="preserve">Naturvärdesinventering </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>55947734</v>
+        <v>55947757</v>
       </c>
       <c r="B54" t="n">
-        <v>80112</v>
+        <v>91245</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -5934,10 +5934,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>687057</v>
+        <v>687007</v>
       </c>
       <c r="R54" t="n">
-        <v>7074691</v>
+        <v>7074553</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6000,45 +6000,45 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>122745432</v>
+        <v>55947734</v>
       </c>
       <c r="B55" t="n">
-        <v>91699</v>
+        <v>80112</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1209</v>
+        <v>6462</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>686837</v>
+        <v>687057</v>
       </c>
       <c r="R55" t="n">
-        <v>7074559</v>
+        <v>7074691</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6065,12 +6065,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6085,17 +6085,17 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
+          <t>Naturvärdesinventering Y-län</t>
         </is>
       </c>
     </row>
@@ -6213,10 +6213,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>54482467</v>
+        <v>55947747</v>
       </c>
       <c r="B57" t="n">
-        <v>91259</v>
+        <v>91541</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6224,21 +6224,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6248,10 +6248,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>686751</v>
+        <v>686996</v>
       </c>
       <c r="R57" t="n">
-        <v>7074299</v>
+        <v>7074988</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6298,22 +6298,26 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY57" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>54482806</v>
+        <v>62031663</v>
       </c>
       <c r="B58" t="n">
-        <v>91245</v>
+        <v>57657</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6321,34 +6325,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>687194</v>
+        <v>687112</v>
       </c>
       <c r="R58" t="n">
-        <v>7074519</v>
+        <v>7074747</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6375,12 +6379,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6395,44 +6399,44 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>54482691</v>
+        <v>55947758</v>
       </c>
       <c r="B59" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6442,10 +6446,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>686868</v>
+        <v>687010</v>
       </c>
       <c r="R59" t="n">
-        <v>7074442</v>
+        <v>7074525</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6492,19 +6496,23 @@
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY59" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>54482566</v>
+        <v>55947774</v>
       </c>
       <c r="B60" t="n">
         <v>80083</v>
@@ -6539,10 +6547,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>687066</v>
+        <v>686761</v>
       </c>
       <c r="R60" t="n">
-        <v>7074350</v>
+        <v>7074235</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6589,22 +6597,26 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY60" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>55947747</v>
+        <v>54482467</v>
       </c>
       <c r="B61" t="n">
-        <v>91541</v>
+        <v>91259</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6612,21 +6624,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6636,10 +6648,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>686996</v>
+        <v>686751</v>
       </c>
       <c r="R61" t="n">
-        <v>7074988</v>
+        <v>7074299</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6686,23 +6698,19 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY61" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>55947758</v>
+        <v>54482806</v>
       </c>
       <c r="B62" t="n">
         <v>91245</v>
@@ -6737,10 +6745,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>687010</v>
+        <v>687194</v>
       </c>
       <c r="R62" t="n">
-        <v>7074525</v>
+        <v>7074519</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6787,48 +6795,44 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY62" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>55947774</v>
+        <v>54482691</v>
       </c>
       <c r="B63" t="n">
-        <v>80083</v>
+        <v>91699</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -6838,10 +6842,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>686761</v>
+        <v>686868</v>
       </c>
       <c r="R63" t="n">
-        <v>7074235</v>
+        <v>7074442</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6888,26 +6892,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY63" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62031663</v>
+        <v>54482566</v>
       </c>
       <c r="B64" t="n">
-        <v>57657</v>
+        <v>80083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6915,34 +6915,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>687112</v>
+        <v>687066</v>
       </c>
       <c r="R64" t="n">
-        <v>7074747</v>
+        <v>7074350</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -6969,12 +6969,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -6989,22 +6989,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>122745451</v>
+        <v>122745460</v>
       </c>
       <c r="B65" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7012,34 +7012,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>687094</v>
+        <v>687095</v>
       </c>
       <c r="R65" t="n">
-        <v>7074280</v>
+        <v>7074507</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7102,10 +7102,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>122745463</v>
+        <v>122745445</v>
       </c>
       <c r="B66" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7113,34 +7113,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>687085</v>
+        <v>687078</v>
       </c>
       <c r="R66" t="n">
-        <v>7074532</v>
+        <v>7074201</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7203,10 +7203,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>122745460</v>
+        <v>122745451</v>
       </c>
       <c r="B67" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7214,34 +7214,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>687095</v>
+        <v>687094</v>
       </c>
       <c r="R67" t="n">
-        <v>7074507</v>
+        <v>7074280</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7304,10 +7304,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>122745445</v>
+        <v>122745463</v>
       </c>
       <c r="B68" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7315,34 +7315,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>687078</v>
+        <v>687085</v>
       </c>
       <c r="R68" t="n">
-        <v>7074201</v>
+        <v>7074532</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>54482808</v>
+        <v>55947737</v>
       </c>
       <c r="B69" t="n">
         <v>91245</v>
@@ -7440,10 +7440,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>687063</v>
+        <v>687066</v>
       </c>
       <c r="R69" t="n">
-        <v>7074665</v>
+        <v>7074830</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7490,22 +7490,26 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY69" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>54482557</v>
+        <v>55947772</v>
       </c>
       <c r="B70" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7513,21 +7517,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7537,10 +7541,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>686988</v>
+        <v>686758</v>
       </c>
       <c r="R70" t="n">
-        <v>7074674</v>
+        <v>7074244</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7587,22 +7591,26 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY70" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>55947772</v>
+        <v>55947750</v>
       </c>
       <c r="B71" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7610,21 +7618,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7634,10 +7642,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>686758</v>
+        <v>687011</v>
       </c>
       <c r="R71" t="n">
-        <v>7074244</v>
+        <v>7075066</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7700,7 +7708,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>55947750</v>
+        <v>54482808</v>
       </c>
       <c r="B72" t="n">
         <v>91245</v>
@@ -7735,10 +7743,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>687011</v>
+        <v>687063</v>
       </c>
       <c r="R72" t="n">
-        <v>7075066</v>
+        <v>7074665</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7785,26 +7793,22 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY72" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>55947737</v>
+        <v>54482557</v>
       </c>
       <c r="B73" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7812,21 +7816,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7836,10 +7840,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>687066</v>
+        <v>686988</v>
       </c>
       <c r="R73" t="n">
-        <v>7074830</v>
+        <v>7074674</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7886,19 +7890,15 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY73" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -8003,10 +8003,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>122745469</v>
+        <v>122745470</v>
       </c>
       <c r="B75" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8014,21 +8014,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8038,10 +8038,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>687115</v>
+        <v>687165</v>
       </c>
       <c r="R75" t="n">
-        <v>7074620</v>
+        <v>7074615</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8104,45 +8104,45 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>122745470</v>
+        <v>122745461</v>
       </c>
       <c r="B76" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>687165</v>
+        <v>687083</v>
       </c>
       <c r="R76" t="n">
-        <v>7074615</v>
+        <v>7074525</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8205,45 +8205,45 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>122745461</v>
+        <v>122745469</v>
       </c>
       <c r="B77" t="n">
-        <v>91699</v>
+        <v>91263</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>687083</v>
+        <v>687115</v>
       </c>
       <c r="R77" t="n">
-        <v>7074525</v>
+        <v>7074620</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8306,32 +8306,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>54482690</v>
+        <v>55947763</v>
       </c>
       <c r="B78" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8341,10 +8341,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>687187</v>
+        <v>686788</v>
       </c>
       <c r="R78" t="n">
-        <v>7074585</v>
+        <v>7074580</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8391,44 +8391,48 @@
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY78" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>54482466</v>
+        <v>55947753</v>
       </c>
       <c r="B79" t="n">
-        <v>91259</v>
+        <v>91699</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8438,10 +8442,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>687192</v>
+        <v>686997</v>
       </c>
       <c r="R79" t="n">
-        <v>7074559</v>
+        <v>7074885</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8488,44 +8492,48 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY79" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>54482558</v>
+        <v>54482690</v>
       </c>
       <c r="B80" t="n">
-        <v>80083</v>
+        <v>91699</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -8535,10 +8543,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>686835</v>
+        <v>687187</v>
       </c>
       <c r="R80" t="n">
-        <v>7074440</v>
+        <v>7074585</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8597,10 +8605,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>54482564</v>
+        <v>54482466</v>
       </c>
       <c r="B81" t="n">
-        <v>80083</v>
+        <v>91259</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8608,21 +8616,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8632,10 +8640,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>686781</v>
+        <v>687192</v>
       </c>
       <c r="R81" t="n">
-        <v>7074293</v>
+        <v>7074559</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8694,10 +8702,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>55947763</v>
+        <v>54482558</v>
       </c>
       <c r="B82" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8705,21 +8713,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8729,10 +8737,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>686788</v>
+        <v>686835</v>
       </c>
       <c r="R82" t="n">
-        <v>7074580</v>
+        <v>7074440</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8779,48 +8787,44 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY82" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>55947753</v>
+        <v>54482564</v>
       </c>
       <c r="B83" t="n">
-        <v>91699</v>
+        <v>80083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -8830,10 +8834,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>686997</v>
+        <v>686781</v>
       </c>
       <c r="R83" t="n">
-        <v>7074885</v>
+        <v>7074293</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -8880,19 +8884,15 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY83" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -9310,45 +9310,53 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>55947743</v>
+        <v>86688721</v>
       </c>
       <c r="B88" t="n">
-        <v>91245</v>
+        <v>98382</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Dammviken, Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>686989</v>
+        <v>687192</v>
       </c>
       <c r="R88" t="n">
-        <v>7074902</v>
+        <v>7074475</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9375,12 +9383,12 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -9389,29 +9397,26 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Karin Häggblad</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY88" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Karin Häggblad</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>55947744</v>
+        <v>54482813</v>
       </c>
       <c r="B89" t="n">
         <v>91245</v>
@@ -9446,10 +9451,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>687013</v>
+        <v>686758</v>
       </c>
       <c r="R89" t="n">
-        <v>7074958</v>
+        <v>7074309</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9496,43 +9501,39 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY89" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>55947771</v>
+        <v>54482306</v>
       </c>
       <c r="B90" t="n">
-        <v>78980</v>
+        <v>80118</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -9547,10 +9548,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>686599</v>
+        <v>686968</v>
       </c>
       <c r="R90" t="n">
-        <v>7074467</v>
+        <v>7074806</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9597,26 +9598,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY90" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>55947768</v>
+        <v>55947743</v>
       </c>
       <c r="B91" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9624,21 +9621,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9648,10 +9645,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>686718</v>
+        <v>686989</v>
       </c>
       <c r="R91" t="n">
-        <v>7074669</v>
+        <v>7074902</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -9714,7 +9711,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>54482813</v>
+        <v>55947744</v>
       </c>
       <c r="B92" t="n">
         <v>91245</v>
@@ -9749,10 +9746,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>686758</v>
+        <v>687013</v>
       </c>
       <c r="R92" t="n">
-        <v>7074309</v>
+        <v>7074958</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -9799,39 +9796,43 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY92" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>54482306</v>
+        <v>55947771</v>
       </c>
       <c r="B93" t="n">
-        <v>80118</v>
+        <v>78980</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -9846,10 +9847,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>686968</v>
+        <v>686599</v>
       </c>
       <c r="R93" t="n">
-        <v>7074806</v>
+        <v>7074467</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -9896,65 +9897,61 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY93" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>86688721</v>
+        <v>55947768</v>
       </c>
       <c r="B94" t="n">
-        <v>98382</v>
+        <v>80083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Dammviken, Herrbergsliden, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>687192</v>
+        <v>686718</v>
       </c>
       <c r="R94" t="n">
-        <v>7074475</v>
+        <v>7074669</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -9981,12 +9978,12 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -9995,64 +9992,67 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
-      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Karin Häggblad</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Karin Häggblad</t>
-        </is>
-      </c>
-      <c r="AY94" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>122745467</v>
+        <v>122745455</v>
       </c>
       <c r="B95" t="n">
-        <v>91245</v>
+        <v>80112</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>687109</v>
+        <v>687064</v>
       </c>
       <c r="R95" t="n">
-        <v>7074608</v>
+        <v>7074442</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10115,45 +10115,45 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>122745455</v>
+        <v>122745467</v>
       </c>
       <c r="B96" t="n">
-        <v>80112</v>
+        <v>91245</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>687064</v>
+        <v>687109</v>
       </c>
       <c r="R96" t="n">
-        <v>7074442</v>
+        <v>7074608</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10327,10 +10327,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>55947765</v>
+        <v>62031665</v>
       </c>
       <c r="B98" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10338,34 +10338,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>686746</v>
+        <v>687015</v>
       </c>
       <c r="R98" t="n">
-        <v>7074622</v>
+        <v>7074866</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -10392,12 +10392,12 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -10412,19 +10412,15 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY98" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Åsa Michold</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -10630,7 +10626,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>54482807</v>
+        <v>55947765</v>
       </c>
       <c r="B101" t="n">
         <v>91245</v>
@@ -10665,10 +10661,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>687135</v>
+        <v>686746</v>
       </c>
       <c r="R101" t="n">
-        <v>7074646</v>
+        <v>7074622</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -10715,15 +10711,19 @@
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY101" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -10824,32 +10824,32 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>54482692</v>
+        <v>54482807</v>
       </c>
       <c r="B103" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -10859,10 +10859,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>686824</v>
+        <v>687135</v>
       </c>
       <c r="R103" t="n">
-        <v>7074469</v>
+        <v>7074646</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -10921,32 +10921,32 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>54482814</v>
+        <v>54482692</v>
       </c>
       <c r="B104" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -10956,10 +10956,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>686991</v>
+        <v>686824</v>
       </c>
       <c r="R104" t="n">
-        <v>7074325</v>
+        <v>7074469</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11018,10 +11018,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>62031665</v>
+        <v>54482814</v>
       </c>
       <c r="B105" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -11029,34 +11029,34 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>687015</v>
+        <v>686991</v>
       </c>
       <c r="R105" t="n">
-        <v>7074866</v>
+        <v>7074325</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11083,12 +11083,12 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -11103,22 +11103,22 @@
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>54482641</v>
+        <v>62031667</v>
       </c>
       <c r="B106" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11126,34 +11126,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>687182</v>
+        <v>686976</v>
       </c>
       <c r="R106" t="n">
-        <v>7074584</v>
+        <v>7074930</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -11200,12 +11200,12 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
@@ -11309,10 +11309,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>54482319</v>
+        <v>54482560</v>
       </c>
       <c r="B108" t="n">
-        <v>79012</v>
+        <v>80083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11320,21 +11320,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -11344,10 +11344,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>687165</v>
+        <v>686819</v>
       </c>
       <c r="R108" t="n">
-        <v>7074591</v>
+        <v>7074573</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -11406,10 +11406,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>54482560</v>
+        <v>54482319</v>
       </c>
       <c r="B109" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11417,21 +11417,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -11441,10 +11441,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>686819</v>
+        <v>687165</v>
       </c>
       <c r="R109" t="n">
-        <v>7074573</v>
+        <v>7074591</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -11503,10 +11503,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>62031667</v>
+        <v>54482641</v>
       </c>
       <c r="B110" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11514,34 +11514,34 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>686976</v>
+        <v>687182</v>
       </c>
       <c r="R110" t="n">
-        <v>7074930</v>
+        <v>7074584</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -11568,12 +11568,12 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -11588,22 +11588,22 @@
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>55947770</v>
+        <v>55947732</v>
       </c>
       <c r="B111" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11611,21 +11611,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -11635,10 +11635,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>686637</v>
+        <v>687057</v>
       </c>
       <c r="R111" t="n">
-        <v>7074567</v>
+        <v>7074691</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -11701,10 +11701,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>55947732</v>
+        <v>55947770</v>
       </c>
       <c r="B112" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11712,21 +11712,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -11736,10 +11736,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>687057</v>
+        <v>686637</v>
       </c>
       <c r="R112" t="n">
-        <v>7074691</v>
+        <v>7074567</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -11802,10 +11802,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>122745452</v>
+        <v>122745466</v>
       </c>
       <c r="B113" t="n">
-        <v>91256</v>
+        <v>91210</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11813,34 +11813,34 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1205</v>
+        <v>5447</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>687107</v>
+        <v>687076</v>
       </c>
       <c r="R113" t="n">
-        <v>7074318</v>
+        <v>7074569</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -11903,45 +11903,45 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>122745466</v>
+        <v>122745442</v>
       </c>
       <c r="B114" t="n">
-        <v>91210</v>
+        <v>91241</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>5447</v>
+        <v>1108</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Koloni- SÖ, Ång</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>687076</v>
+        <v>687155</v>
       </c>
       <c r="R114" t="n">
-        <v>7074569</v>
+        <v>7074280</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -12004,45 +12004,45 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>122745442</v>
+        <v>122745452</v>
       </c>
       <c r="B115" t="n">
-        <v>91241</v>
+        <v>91256</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1108</v>
+        <v>1205</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Koloni- SÖ, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>687155</v>
+        <v>687107</v>
       </c>
       <c r="R115" t="n">
-        <v>7074280</v>
+        <v>7074318</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -12105,10 +12105,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>55947776</v>
+        <v>54482811</v>
       </c>
       <c r="B116" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12116,21 +12116,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -12140,10 +12140,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>686932</v>
+        <v>686751</v>
       </c>
       <c r="R116" t="n">
-        <v>7074301</v>
+        <v>7074598</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -12190,23 +12190,19 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY116" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>55947755</v>
+        <v>54482810</v>
       </c>
       <c r="B117" t="n">
         <v>91245</v>
@@ -12241,10 +12237,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>687002</v>
+        <v>686823</v>
       </c>
       <c r="R117" t="n">
-        <v>7074872</v>
+        <v>7074458</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -12291,26 +12287,22 @@
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY117" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>55947760</v>
+        <v>54482390</v>
       </c>
       <c r="B118" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12318,21 +12310,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -12342,10 +12334,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>686865</v>
+        <v>687148</v>
       </c>
       <c r="R118" t="n">
-        <v>7074457</v>
+        <v>7074647</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -12392,26 +12384,22 @@
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY118" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>54482811</v>
+        <v>55947776</v>
       </c>
       <c r="B119" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12419,21 +12407,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -12443,10 +12431,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>686751</v>
+        <v>686932</v>
       </c>
       <c r="R119" t="n">
-        <v>7074598</v>
+        <v>7074301</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -12493,19 +12481,23 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY119" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY119" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>54482810</v>
+        <v>55947755</v>
       </c>
       <c r="B120" t="n">
         <v>91245</v>
@@ -12540,10 +12532,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>686823</v>
+        <v>687002</v>
       </c>
       <c r="R120" t="n">
-        <v>7074458</v>
+        <v>7074872</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -12590,22 +12582,26 @@
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY120" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY120" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>54482390</v>
+        <v>55947760</v>
       </c>
       <c r="B121" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12613,21 +12609,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -12637,10 +12633,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>687148</v>
+        <v>686865</v>
       </c>
       <c r="R121" t="n">
-        <v>7074647</v>
+        <v>7074457</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -12687,15 +12683,19 @@
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY121" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY121" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -12800,7 +12800,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>54482559</v>
+        <v>55947730</v>
       </c>
       <c r="B123" t="n">
         <v>80083</v>
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>686797</v>
+        <v>687050</v>
       </c>
       <c r="R123" t="n">
-        <v>7074565</v>
+        <v>7074666</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -12885,22 +12885,26 @@
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY123" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY123" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>54482553</v>
+        <v>55947729</v>
       </c>
       <c r="B124" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12908,21 +12912,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -12935,7 +12939,7 @@
         <v>687123</v>
       </c>
       <c r="R124" t="n">
-        <v>7074647</v>
+        <v>7074638</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -12982,44 +12986,48 @@
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY124" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY124" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>54482709</v>
+        <v>55947751</v>
       </c>
       <c r="B125" t="n">
-        <v>79987</v>
+        <v>91245</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -13029,10 +13037,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>686960</v>
+        <v>686971</v>
       </c>
       <c r="R125" t="n">
-        <v>7075141</v>
+        <v>7075160</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -13079,19 +13087,23 @@
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY125" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY125" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>54482561</v>
+        <v>54482559</v>
       </c>
       <c r="B126" t="n">
         <v>80083</v>
@@ -13126,10 +13138,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>686644</v>
+        <v>686797</v>
       </c>
       <c r="R126" t="n">
-        <v>7074622</v>
+        <v>7074565</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -13188,10 +13200,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>54482644</v>
+        <v>54482553</v>
       </c>
       <c r="B127" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13199,21 +13211,21 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -13223,10 +13235,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>686791</v>
+        <v>687123</v>
       </c>
       <c r="R127" t="n">
-        <v>7074583</v>
+        <v>7074647</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -13285,32 +13297,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>55947729</v>
+        <v>54482709</v>
       </c>
       <c r="B128" t="n">
-        <v>91245</v>
+        <v>79987</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -13320,10 +13332,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>687123</v>
+        <v>686960</v>
       </c>
       <c r="R128" t="n">
-        <v>7074638</v>
+        <v>7075141</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -13370,23 +13382,19 @@
       <c r="AT128" t="inlineStr"/>
       <c r="AW128" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY128" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>55947730</v>
+        <v>54482561</v>
       </c>
       <c r="B129" t="n">
         <v>80083</v>
@@ -13421,10 +13429,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>687050</v>
+        <v>686644</v>
       </c>
       <c r="R129" t="n">
-        <v>7074666</v>
+        <v>7074622</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -13471,64 +13479,60 @@
       <c r="AT129" t="inlineStr"/>
       <c r="AW129" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY129" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>59127906</v>
+        <v>54482644</v>
       </c>
       <c r="B130" t="n">
-        <v>105396</v>
+        <v>91541</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>221144</v>
+        <v>658</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Herrbergslidens O-sida strax V dammen över Husån, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>687030</v>
+        <v>686791</v>
       </c>
       <c r="R130" t="n">
-        <v>7074503</v>
+        <v>7074583</v>
       </c>
       <c r="S130" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -13552,17 +13556,12 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>1969-07-25</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>1969-07-25</t>
-        </is>
-      </c>
-      <c r="AC130" t="inlineStr">
-        <is>
-          <t>Observatör: Mascher, Jan W.</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD130" t="b">
@@ -13577,61 +13576,57 @@
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Stefan Grundström</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Via Stefan Grundström</t>
-        </is>
-      </c>
-      <c r="AY130" t="inlineStr">
-        <is>
-          <t>Ångermanlands Flora</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>55947751</v>
+        <v>103509367</v>
       </c>
       <c r="B131" t="n">
-        <v>91245</v>
+        <v>79987</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>686971</v>
+        <v>687143</v>
       </c>
       <c r="R131" t="n">
-        <v>7075160</v>
+        <v>7074245</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -13658,12 +13653,12 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -13674,30 +13669,41 @@
       </c>
       <c r="AG131" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ131" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK131" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO131" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY131" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>103509367</v>
+        <v>59127906</v>
       </c>
       <c r="B132" t="n">
-        <v>79987</v>
+        <v>105396</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13705,37 +13711,37 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>6456</v>
+        <v>221144</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
+          <t>Herrbergslidens O-sida strax V dammen över Husån, Ång</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>687143</v>
+        <v>687030</v>
       </c>
       <c r="R132" t="n">
-        <v>7074245</v>
+        <v>7074503</v>
       </c>
       <c r="S132" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -13759,12 +13765,17 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>1969-07-25</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>1969-07-25</t>
+        </is>
+      </c>
+      <c r="AC132" t="inlineStr">
+        <is>
+          <t>Observatör: Mascher, Jan W.</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -13775,34 +13786,23 @@
       </c>
       <c r="AG132" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ132" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK132" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO132" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Stefan Grundström</t>
         </is>
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY132" t="inlineStr"/>
+          <t>Via Stefan Grundström</t>
+        </is>
+      </c>
+      <c r="AY132" t="inlineStr">
+        <is>
+          <t>Ångermanlands Flora</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -13907,45 +13907,45 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>62031664</v>
+        <v>54482391</v>
       </c>
       <c r="B134" t="n">
-        <v>98361</v>
+        <v>78980</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>687082</v>
+        <v>686986</v>
       </c>
       <c r="R134" t="n">
-        <v>7074790</v>
+        <v>7074741</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -13972,12 +13972,12 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD134" t="b">
@@ -13992,57 +13992,57 @@
       <c r="AT134" t="inlineStr"/>
       <c r="AW134" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX134" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>62031666</v>
+        <v>54482554</v>
       </c>
       <c r="B135" t="n">
-        <v>91699</v>
+        <v>80083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>686997</v>
+        <v>687016</v>
       </c>
       <c r="R135" t="n">
-        <v>7074884</v>
+        <v>7074800</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -14069,12 +14069,12 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD135" t="b">
@@ -14089,19 +14089,19 @@
       <c r="AT135" t="inlineStr"/>
       <c r="AW135" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX135" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>54482391</v>
+        <v>54482392</v>
       </c>
       <c r="B136" t="n">
         <v>78980</v>
@@ -14136,10 +14136,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>686986</v>
+        <v>686633</v>
       </c>
       <c r="R136" t="n">
-        <v>7074741</v>
+        <v>7074572</v>
       </c>
       <c r="S136" t="n">
         <v>10</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>54482554</v>
+        <v>54482645</v>
       </c>
       <c r="B137" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14209,21 +14209,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -14233,10 +14233,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>687016</v>
+        <v>687110</v>
       </c>
       <c r="R137" t="n">
-        <v>7074800</v>
+        <v>7074341</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -14295,10 +14295,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>54482392</v>
+        <v>54482812</v>
       </c>
       <c r="B138" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -14306,21 +14306,21 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -14330,10 +14330,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>686633</v>
+        <v>686706</v>
       </c>
       <c r="R138" t="n">
-        <v>7074572</v>
+        <v>7074655</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>54482645</v>
+        <v>55947745</v>
       </c>
       <c r="B139" t="n">
         <v>91541</v>
@@ -14427,10 +14427,10 @@
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>687110</v>
+        <v>687013</v>
       </c>
       <c r="R139" t="n">
-        <v>7074341</v>
+        <v>7074958</v>
       </c>
       <c r="S139" t="n">
         <v>10</v>
@@ -14477,22 +14477,26 @@
       <c r="AT139" t="inlineStr"/>
       <c r="AW139" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX139" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY139" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY139" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>54482812</v>
+        <v>55947740</v>
       </c>
       <c r="B140" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -14500,21 +14504,21 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
@@ -14524,10 +14528,10 @@
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>686706</v>
+        <v>687035</v>
       </c>
       <c r="R140" t="n">
-        <v>7074655</v>
+        <v>7074797</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -14574,57 +14578,61 @@
       <c r="AT140" t="inlineStr"/>
       <c r="AW140" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX140" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY140" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY140" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>55947745</v>
+        <v>62031666</v>
       </c>
       <c r="B141" t="n">
-        <v>91541</v>
+        <v>91699</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>687013</v>
+        <v>686997</v>
       </c>
       <c r="R141" t="n">
-        <v>7074958</v>
+        <v>7074884</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -14651,12 +14659,12 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD141" t="b">
@@ -14671,61 +14679,57 @@
       <c r="AT141" t="inlineStr"/>
       <c r="AW141" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX141" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY141" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Åsa Michold</t>
+        </is>
+      </c>
+      <c r="AY141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>55947764</v>
+        <v>62031664</v>
       </c>
       <c r="B142" t="n">
-        <v>91210</v>
+        <v>98361</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>686769</v>
+        <v>687082</v>
       </c>
       <c r="R142" t="n">
-        <v>7074590</v>
+        <v>7074790</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -14752,12 +14756,12 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD142" t="b">
@@ -14772,26 +14776,22 @@
       <c r="AT142" t="inlineStr"/>
       <c r="AW142" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY142" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Åsa Michold</t>
+        </is>
+      </c>
+      <c r="AY142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>55947740</v>
+        <v>55947767</v>
       </c>
       <c r="B143" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -14799,21 +14799,21 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
@@ -14823,10 +14823,10 @@
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>687035</v>
+        <v>686750</v>
       </c>
       <c r="R143" t="n">
-        <v>7074797</v>
+        <v>7074635</v>
       </c>
       <c r="S143" t="n">
         <v>10</v>
@@ -14889,32 +14889,32 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>55947767</v>
+        <v>55947764</v>
       </c>
       <c r="B144" t="n">
-        <v>91263</v>
+        <v>91210</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -14924,10 +14924,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>686750</v>
+        <v>686769</v>
       </c>
       <c r="R144" t="n">
-        <v>7074635</v>
+        <v>7074590</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -14990,10 +14990,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>122745426</v>
+        <v>122745462</v>
       </c>
       <c r="B145" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -15001,34 +15001,34 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>omr. SÖ, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>686828</v>
+        <v>687089</v>
       </c>
       <c r="R145" t="n">
-        <v>7074482</v>
+        <v>7074523</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>122745453</v>
+        <v>122745457</v>
       </c>
       <c r="B146" t="n">
         <v>91245</v>
@@ -15122,14 +15122,14 @@
       <c r="I146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>omr. SÖ, Ång</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>687092</v>
+        <v>687052</v>
       </c>
       <c r="R146" t="n">
-        <v>7074341</v>
+        <v>7074457</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -15192,10 +15192,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>122745462</v>
+        <v>122745426</v>
       </c>
       <c r="B147" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -15203,34 +15203,34 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>omr. SÖ, Ång</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>687089</v>
+        <v>686828</v>
       </c>
       <c r="R147" t="n">
-        <v>7074523</v>
+        <v>7074482</v>
       </c>
       <c r="S147" t="n">
         <v>10</v>
@@ -15293,7 +15293,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>122745457</v>
+        <v>122745453</v>
       </c>
       <c r="B148" t="n">
         <v>91245</v>
@@ -15324,14 +15324,14 @@
       <c r="I148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>omr. SÖ, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>687052</v>
+        <v>687092</v>
       </c>
       <c r="R148" t="n">
-        <v>7074457</v>
+        <v>7074341</v>
       </c>
       <c r="S148" t="n">
         <v>10</v>
@@ -15596,10 +15596,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>122745421</v>
+        <v>122745446</v>
       </c>
       <c r="B151" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15607,21 +15607,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -15631,10 +15631,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>686959</v>
+        <v>687098</v>
       </c>
       <c r="R151" t="n">
-        <v>7074205</v>
+        <v>7074216</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -15697,10 +15697,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>122745446</v>
+        <v>122745421</v>
       </c>
       <c r="B152" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15708,21 +15708,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -15732,10 +15732,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>687098</v>
+        <v>686959</v>
       </c>
       <c r="R152" t="n">
-        <v>7074216</v>
+        <v>7074205</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -16310,32 +16310,32 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>54482495</v>
+        <v>55947748</v>
       </c>
       <c r="B158" t="n">
-        <v>80043</v>
+        <v>91245</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>229497</v>
+        <v>1202</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -16345,10 +16345,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>686659</v>
+        <v>687005</v>
       </c>
       <c r="R158" t="n">
-        <v>7074677</v>
+        <v>7074994</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -16395,44 +16395,48 @@
       <c r="AT158" t="inlineStr"/>
       <c r="AW158" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX158" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY158" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY158" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>55947739</v>
+        <v>55947728</v>
       </c>
       <c r="B159" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -16442,10 +16446,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>687012</v>
+        <v>687194</v>
       </c>
       <c r="R159" t="n">
-        <v>7074860</v>
+        <v>7074493</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -16508,10 +16512,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>55947748</v>
+        <v>55947739</v>
       </c>
       <c r="B160" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -16519,21 +16523,21 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -16543,10 +16547,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>687005</v>
+        <v>687012</v>
       </c>
       <c r="R160" t="n">
-        <v>7074994</v>
+        <v>7074860</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -16609,10 +16613,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>55947728</v>
+        <v>54482495</v>
       </c>
       <c r="B161" t="n">
-        <v>91210</v>
+        <v>80043</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -16620,21 +16624,21 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
@@ -16644,10 +16648,10 @@
         </is>
       </c>
       <c r="Q161" t="n">
-        <v>687194</v>
+        <v>686659</v>
       </c>
       <c r="R161" t="n">
-        <v>7074493</v>
+        <v>7074677</v>
       </c>
       <c r="S161" t="n">
         <v>10</v>
@@ -16694,26 +16698,22 @@
       <c r="AT161" t="inlineStr"/>
       <c r="AW161" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX161" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY161" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>122745472</v>
+        <v>122745454</v>
       </c>
       <c r="B162" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16721,34 +16721,34 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>Hemmingtjärnen V, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>687189</v>
+        <v>687081</v>
       </c>
       <c r="R162" t="n">
-        <v>7074613</v>
+        <v>7074357</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -16811,10 +16811,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>122745429</v>
+        <v>122745456</v>
       </c>
       <c r="B163" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -16822,21 +16822,21 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>686807</v>
+        <v>687062</v>
       </c>
       <c r="R163" t="n">
-        <v>7074547</v>
+        <v>7074442</v>
       </c>
       <c r="S163" t="n">
         <v>10</v>
@@ -16912,10 +16912,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>122745454</v>
+        <v>122745429</v>
       </c>
       <c r="B164" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -16923,21 +16923,21 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
@@ -16947,10 +16947,10 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>687081</v>
+        <v>686807</v>
       </c>
       <c r="R164" t="n">
-        <v>7074357</v>
+        <v>7074547</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
@@ -17013,10 +17013,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>122745456</v>
+        <v>122745472</v>
       </c>
       <c r="B165" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -17024,34 +17024,34 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Hemmingtjärnen V, Ång</t>
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>687062</v>
+        <v>687189</v>
       </c>
       <c r="R165" t="n">
-        <v>7074442</v>
+        <v>7074613</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>

--- a/artfynd/Herrbergsliden norr artfynd.xlsx
+++ b/artfynd/Herrbergsliden norr artfynd.xlsx
@@ -889,45 +889,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>122745431</v>
+        <v>122745477</v>
       </c>
       <c r="B4" t="n">
-        <v>80043</v>
+        <v>91245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>229497</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Rullklippen V, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>686806</v>
+        <v>687188</v>
       </c>
       <c r="R4" t="n">
-        <v>7074568</v>
+        <v>7074545</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,45 +990,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>122745477</v>
+        <v>122745431</v>
       </c>
       <c r="B5" t="n">
-        <v>91245</v>
+        <v>80043</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>229497</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Rullklippen V, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>687188</v>
+        <v>686806</v>
       </c>
       <c r="R5" t="n">
-        <v>7074545</v>
+        <v>7074568</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1289,47 +1289,45 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54482889</v>
+        <v>54482320</v>
       </c>
       <c r="B8" t="n">
-        <v>91210</v>
+        <v>79012</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>185</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>687194</v>
+        <v>687016</v>
       </c>
       <c r="R8" t="n">
-        <v>7074580</v>
+        <v>7074790</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1370,7 +1368,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54482890</v>
+        <v>54482889</v>
       </c>
       <c r="B9" t="n">
         <v>91210</v>
@@ -1426,10 +1423,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>686992</v>
+        <v>687194</v>
       </c>
       <c r="R9" t="n">
-        <v>7074885</v>
+        <v>7074580</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1489,45 +1486,47 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54482320</v>
+        <v>54482890</v>
       </c>
       <c r="B10" t="n">
-        <v>79012</v>
+        <v>91210</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>687016</v>
+        <v>686992</v>
       </c>
       <c r="R10" t="n">
-        <v>7074790</v>
+        <v>7074885</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1568,6 +1567,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>54482562</v>
+        <v>103509372</v>
       </c>
       <c r="B12" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1698,34 +1698,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>686521</v>
+        <v>687174</v>
       </c>
       <c r="R12" t="n">
-        <v>7074555</v>
+        <v>7074481</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1752,12 +1752,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1768,16 +1768,31 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1881,10 +1896,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>55947754</v>
+        <v>54482562</v>
       </c>
       <c r="B14" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1892,21 +1907,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1916,10 +1931,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>686997</v>
+        <v>686521</v>
       </c>
       <c r="R14" t="n">
-        <v>7074884</v>
+        <v>7074555</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1966,19 +1981,15 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2079,10 +2090,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>103509372</v>
+        <v>55947754</v>
       </c>
       <c r="B16" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2090,34 +2101,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>687174</v>
+        <v>686997</v>
       </c>
       <c r="R16" t="n">
-        <v>7074481</v>
+        <v>7074884</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2144,12 +2155,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2160,34 +2171,23 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2595,10 +2595,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>55966529</v>
+        <v>55947736</v>
       </c>
       <c r="B21" t="n">
-        <v>91819</v>
+        <v>91699</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2606,21 +2606,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>760</v>
+        <v>1209</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2630,10 +2630,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>687050</v>
+        <v>687069</v>
       </c>
       <c r="R21" t="n">
-        <v>7074666</v>
+        <v>7074817</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2696,45 +2696,45 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>62031668</v>
+        <v>55966529</v>
       </c>
       <c r="B22" t="n">
-        <v>91256</v>
+        <v>91819</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1205</v>
+        <v>760</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>687042</v>
+        <v>687050</v>
       </c>
       <c r="R22" t="n">
-        <v>7074272</v>
+        <v>7074666</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2781,64 +2781,61 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>86688709</v>
+        <v>54482809</v>
       </c>
       <c r="B23" t="n">
-        <v>91446</v>
+        <v>91245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Dammviken, Herrbergsliden, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>687192</v>
+        <v>687015</v>
       </c>
       <c r="R23" t="n">
-        <v>7074475</v>
+        <v>7074557</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2865,12 +2862,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2879,64 +2876,63 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Karin Häggblad</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Karin Häggblad</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>54482809</v>
+        <v>62031668</v>
       </c>
       <c r="B24" t="n">
-        <v>91245</v>
+        <v>91256</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>687015</v>
+        <v>687042</v>
       </c>
       <c r="R24" t="n">
-        <v>7074557</v>
+        <v>7074272</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2963,12 +2959,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -2983,22 +2979,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>55947736</v>
+        <v>86688709</v>
       </c>
       <c r="B25" t="n">
-        <v>91699</v>
+        <v>91446</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3006,34 +3002,41 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1209</v>
+        <v>48</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(Romell) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Dammviken, Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>687069</v>
+        <v>687192</v>
       </c>
       <c r="R25" t="n">
-        <v>7074817</v>
+        <v>7074475</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3060,12 +3063,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3074,25 +3077,22 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Karin Häggblad</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Karin Häggblad</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3298,32 +3298,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>54482736</v>
+        <v>55947762</v>
       </c>
       <c r="B28" t="n">
-        <v>91256</v>
+        <v>91541</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1205</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>686798</v>
+        <v>686808</v>
       </c>
       <c r="R28" t="n">
-        <v>7074577</v>
+        <v>7074575</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3383,44 +3383,48 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY28" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>54482869</v>
+        <v>55947752</v>
       </c>
       <c r="B29" t="n">
-        <v>91603</v>
+        <v>80083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2062</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3430,10 +3434,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>687131</v>
+        <v>686926</v>
       </c>
       <c r="R29" t="n">
-        <v>7074639</v>
+        <v>7074996</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3480,22 +3484,26 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY29" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>54482642</v>
+        <v>54482552</v>
       </c>
       <c r="B30" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3503,21 +3511,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3527,10 +3535,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>687077</v>
+        <v>687173</v>
       </c>
       <c r="R30" t="n">
-        <v>7074630</v>
+        <v>7074618</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3589,7 +3597,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54482552</v>
+        <v>54482555</v>
       </c>
       <c r="B31" t="n">
         <v>80083</v>
@@ -3624,10 +3632,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>687173</v>
+        <v>686970</v>
       </c>
       <c r="R31" t="n">
-        <v>7074618</v>
+        <v>7074800</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3686,32 +3694,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>54482563</v>
+        <v>54482736</v>
       </c>
       <c r="B32" t="n">
-        <v>80083</v>
+        <v>91256</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3721,10 +3729,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>686695</v>
+        <v>686798</v>
       </c>
       <c r="R32" t="n">
-        <v>7074260</v>
+        <v>7074577</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3783,7 +3791,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>54482555</v>
+        <v>54482563</v>
       </c>
       <c r="B33" t="n">
         <v>80083</v>
@@ -3818,10 +3826,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>686970</v>
+        <v>686695</v>
       </c>
       <c r="R33" t="n">
-        <v>7074800</v>
+        <v>7074260</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3880,7 +3888,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>55947762</v>
+        <v>54482642</v>
       </c>
       <c r="B34" t="n">
         <v>91541</v>
@@ -3915,10 +3923,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>686808</v>
+        <v>687077</v>
       </c>
       <c r="R34" t="n">
-        <v>7074575</v>
+        <v>7074630</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -3965,48 +3973,44 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY34" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>55947752</v>
+        <v>54482869</v>
       </c>
       <c r="B35" t="n">
-        <v>80083</v>
+        <v>91603</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>2062</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4016,10 +4020,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>686926</v>
+        <v>687131</v>
       </c>
       <c r="R35" t="n">
-        <v>7074996</v>
+        <v>7074639</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4066,26 +4070,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY35" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>122745448</v>
+        <v>122745422</v>
       </c>
       <c r="B36" t="n">
-        <v>91210</v>
+        <v>80043</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4093,34 +4093,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Lassbodsjön NV, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>687091</v>
+        <v>686840</v>
       </c>
       <c r="R36" t="n">
-        <v>7074228</v>
+        <v>7074274</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>122745422</v>
+        <v>122745448</v>
       </c>
       <c r="B38" t="n">
-        <v>80043</v>
+        <v>91210</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4295,34 +4295,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>229497</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Lassbodsjön NV, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>686840</v>
+        <v>687091</v>
       </c>
       <c r="R38" t="n">
-        <v>7074274</v>
+        <v>7074228</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>55947738</v>
+        <v>55947756</v>
       </c>
       <c r="B40" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4497,21 +4497,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>687058</v>
+        <v>687004</v>
       </c>
       <c r="R40" t="n">
-        <v>7074834</v>
+        <v>7074557</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4587,10 +4587,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>55947756</v>
+        <v>55947738</v>
       </c>
       <c r="B41" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4598,21 +4598,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>687004</v>
+        <v>687058</v>
       </c>
       <c r="R41" t="n">
-        <v>7074557</v>
+        <v>7074834</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4994,32 +4994,32 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55947761</v>
+        <v>55947735</v>
       </c>
       <c r="B45" t="n">
-        <v>91263</v>
+        <v>79987</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5432</v>
+        <v>6456</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5029,10 +5029,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>686806</v>
+        <v>687075</v>
       </c>
       <c r="R45" t="n">
-        <v>7074574</v>
+        <v>7074795</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5095,32 +5095,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>55947735</v>
+        <v>55947761</v>
       </c>
       <c r="B46" t="n">
-        <v>79987</v>
+        <v>91263</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5130,10 +5130,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>687075</v>
+        <v>686806</v>
       </c>
       <c r="R46" t="n">
-        <v>7074795</v>
+        <v>7074574</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5398,45 +5398,45 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>122745427</v>
+        <v>122745433</v>
       </c>
       <c r="B49" t="n">
-        <v>91541</v>
+        <v>91256</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>658</v>
+        <v>1205</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>omr. SÖ, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>686800</v>
+        <v>686826</v>
       </c>
       <c r="R49" t="n">
-        <v>7074522</v>
+        <v>7074561</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5499,45 +5499,45 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>122745433</v>
+        <v>122745459</v>
       </c>
       <c r="B50" t="n">
-        <v>91256</v>
+        <v>80083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>686826</v>
+        <v>687095</v>
       </c>
       <c r="R50" t="n">
-        <v>7074561</v>
+        <v>7074503</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>122745459</v>
+        <v>122745427</v>
       </c>
       <c r="B51" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5611,34 +5611,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>omr. SÖ, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>687095</v>
+        <v>686800</v>
       </c>
       <c r="R51" t="n">
-        <v>7074503</v>
+        <v>7074522</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5701,32 +5701,32 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>54482646</v>
+        <v>55947734</v>
       </c>
       <c r="B52" t="n">
-        <v>91541</v>
+        <v>80112</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>658</v>
+        <v>6462</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5736,10 +5736,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>687185</v>
+        <v>687057</v>
       </c>
       <c r="R52" t="n">
-        <v>7074415</v>
+        <v>7074691</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5786,57 +5786,61 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY52" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>122745432</v>
+        <v>55947757</v>
       </c>
       <c r="B53" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>686837</v>
+        <v>687007</v>
       </c>
       <c r="R53" t="n">
-        <v>7074559</v>
+        <v>7074553</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5863,12 +5867,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -5883,26 +5887,26 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
+          <t>Naturvärdesinventering Y-län</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>55947757</v>
+        <v>54482646</v>
       </c>
       <c r="B54" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5910,21 +5914,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -5934,10 +5938,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>687007</v>
+        <v>687185</v>
       </c>
       <c r="R54" t="n">
-        <v>7074553</v>
+        <v>7074415</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -5984,61 +5988,57 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY54" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>55947734</v>
+        <v>103509370</v>
       </c>
       <c r="B55" t="n">
-        <v>80112</v>
+        <v>91699</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6462</v>
+        <v>1209</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>687057</v>
+        <v>687182</v>
       </c>
       <c r="R55" t="n">
-        <v>7074691</v>
+        <v>7074476</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6065,12 +6065,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6081,27 +6081,38 @@
       </c>
       <c r="AG55" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ55" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>103509370</v>
+        <v>122745432</v>
       </c>
       <c r="B56" t="n">
         <v>91699</v>
@@ -6132,14 +6143,14 @@
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>687182</v>
+        <v>686837</v>
       </c>
       <c r="R56" t="n">
-        <v>7074476</v>
+        <v>7074559</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6166,12 +6177,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6182,41 +6193,30 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY56" t="inlineStr"/>
+          <t>Helene Andersson, Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55947747</v>
+        <v>54482806</v>
       </c>
       <c r="B57" t="n">
-        <v>91541</v>
+        <v>91245</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6224,21 +6224,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6248,10 +6248,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>686996</v>
+        <v>687194</v>
       </c>
       <c r="R57" t="n">
-        <v>7074988</v>
+        <v>7074519</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6298,26 +6298,22 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY57" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>62031663</v>
+        <v>55947747</v>
       </c>
       <c r="B58" t="n">
-        <v>57657</v>
+        <v>91541</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6325,34 +6321,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>687112</v>
+        <v>686996</v>
       </c>
       <c r="R58" t="n">
-        <v>7074747</v>
+        <v>7074988</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6379,12 +6375,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6399,15 +6395,19 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
-        </is>
-      </c>
-      <c r="AY58" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6512,10 +6512,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>55947774</v>
+        <v>62031663</v>
       </c>
       <c r="B60" t="n">
-        <v>80083</v>
+        <v>57657</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6523,34 +6523,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>686761</v>
+        <v>687112</v>
       </c>
       <c r="R60" t="n">
-        <v>7074235</v>
+        <v>7074747</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6577,12 +6577,12 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6597,26 +6597,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY60" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Åsa Michold</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>54482467</v>
+        <v>55947774</v>
       </c>
       <c r="B61" t="n">
-        <v>91259</v>
+        <v>80083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6624,21 +6620,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6648,10 +6644,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>686751</v>
+        <v>686761</v>
       </c>
       <c r="R61" t="n">
-        <v>7074299</v>
+        <v>7074235</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6698,44 +6694,48 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY61" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>54482806</v>
+        <v>54482691</v>
       </c>
       <c r="B62" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>687194</v>
+        <v>686868</v>
       </c>
       <c r="R62" t="n">
-        <v>7074519</v>
+        <v>7074442</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6807,32 +6807,32 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>54482691</v>
+        <v>54482467</v>
       </c>
       <c r="B63" t="n">
-        <v>91699</v>
+        <v>91259</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -6842,10 +6842,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>686868</v>
+        <v>686751</v>
       </c>
       <c r="R63" t="n">
-        <v>7074442</v>
+        <v>7074299</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>122745460</v>
+        <v>122745445</v>
       </c>
       <c r="B65" t="n">
         <v>91541</v>
@@ -7032,14 +7032,14 @@
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>687095</v>
+        <v>687078</v>
       </c>
       <c r="R65" t="n">
-        <v>7074507</v>
+        <v>7074201</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>122745445</v>
+        <v>122745460</v>
       </c>
       <c r="B66" t="n">
         <v>91541</v>
@@ -7133,14 +7133,14 @@
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>687078</v>
+        <v>687095</v>
       </c>
       <c r="R66" t="n">
-        <v>7074201</v>
+        <v>7074507</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>122745451</v>
+        <v>122745463</v>
       </c>
       <c r="B67" t="n">
         <v>91245</v>
@@ -7234,14 +7234,14 @@
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Lassbodarna S, Ång</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>687094</v>
+        <v>687085</v>
       </c>
       <c r="R67" t="n">
-        <v>7074280</v>
+        <v>7074532</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>122745463</v>
+        <v>122745451</v>
       </c>
       <c r="B68" t="n">
         <v>91245</v>
@@ -7335,14 +7335,14 @@
       <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Lassbodarna S, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>687085</v>
+        <v>687094</v>
       </c>
       <c r="R68" t="n">
-        <v>7074532</v>
+        <v>7074280</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7506,10 +7506,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>55947772</v>
+        <v>54482557</v>
       </c>
       <c r="B70" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7517,21 +7517,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7541,10 +7541,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>686758</v>
+        <v>686988</v>
       </c>
       <c r="R70" t="n">
-        <v>7074244</v>
+        <v>7074674</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7591,23 +7591,19 @@
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY70" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>55947750</v>
+        <v>54482808</v>
       </c>
       <c r="B71" t="n">
         <v>91245</v>
@@ -7642,10 +7638,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>687011</v>
+        <v>687063</v>
       </c>
       <c r="R71" t="n">
-        <v>7075066</v>
+        <v>7074665</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7692,26 +7688,22 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY71" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>54482808</v>
+        <v>55947772</v>
       </c>
       <c r="B72" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7719,21 +7711,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7743,10 +7735,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>687063</v>
+        <v>686758</v>
       </c>
       <c r="R72" t="n">
-        <v>7074665</v>
+        <v>7074244</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7793,22 +7785,26 @@
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY72" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>54482557</v>
+        <v>55947750</v>
       </c>
       <c r="B73" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7816,21 +7812,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7840,10 +7836,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>686988</v>
+        <v>687011</v>
       </c>
       <c r="R73" t="n">
-        <v>7074674</v>
+        <v>7075066</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7890,22 +7886,26 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY73" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>122745424</v>
+        <v>122745469</v>
       </c>
       <c r="B74" t="n">
-        <v>91541</v>
+        <v>91263</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7913,34 +7913,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>686808</v>
+        <v>687115</v>
       </c>
       <c r="R74" t="n">
-        <v>7074433</v>
+        <v>7074620</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8003,10 +8003,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>122745470</v>
+        <v>122745424</v>
       </c>
       <c r="B75" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8014,34 +8014,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>687165</v>
+        <v>686808</v>
       </c>
       <c r="R75" t="n">
-        <v>7074615</v>
+        <v>7074433</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8205,10 +8205,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>122745469</v>
+        <v>122745470</v>
       </c>
       <c r="B77" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8216,21 +8216,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8240,10 +8240,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>687115</v>
+        <v>687165</v>
       </c>
       <c r="R77" t="n">
-        <v>7074620</v>
+        <v>7074615</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8306,32 +8306,32 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>55947763</v>
+        <v>55947753</v>
       </c>
       <c r="B78" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8341,10 +8341,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>686788</v>
+        <v>686997</v>
       </c>
       <c r="R78" t="n">
-        <v>7074580</v>
+        <v>7074885</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8407,32 +8407,32 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>55947753</v>
+        <v>55947763</v>
       </c>
       <c r="B79" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8442,10 +8442,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>686997</v>
+        <v>686788</v>
       </c>
       <c r="R79" t="n">
-        <v>7074885</v>
+        <v>7074580</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8605,10 +8605,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>54482466</v>
+        <v>54482558</v>
       </c>
       <c r="B81" t="n">
-        <v>91259</v>
+        <v>80083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8616,21 +8616,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1204</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8640,10 +8640,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>687192</v>
+        <v>686835</v>
       </c>
       <c r="R81" t="n">
-        <v>7074559</v>
+        <v>7074440</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8702,10 +8702,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>54482558</v>
+        <v>54482466</v>
       </c>
       <c r="B82" t="n">
-        <v>80083</v>
+        <v>91259</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8713,21 +8713,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>1204</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8737,10 +8737,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>686835</v>
+        <v>687192</v>
       </c>
       <c r="R82" t="n">
-        <v>7074440</v>
+        <v>7074559</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8896,45 +8896,45 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>122745468</v>
+        <v>122745438</v>
       </c>
       <c r="B84" t="n">
-        <v>91446</v>
+        <v>91541</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Renskinns- NV, Ång</t>
+          <t>Östanåberget N, Ång</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>687103</v>
+        <v>687151</v>
       </c>
       <c r="R84" t="n">
-        <v>7074615</v>
+        <v>7074362</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9098,45 +9098,45 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>122745438</v>
+        <v>122745468</v>
       </c>
       <c r="B86" t="n">
-        <v>91541</v>
+        <v>91446</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>658</v>
+        <v>48</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Östanåberget N, Ång</t>
+          <t>Renskinns- NV, Ång</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>687151</v>
+        <v>687103</v>
       </c>
       <c r="R86" t="n">
-        <v>7074362</v>
+        <v>7074615</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9310,53 +9310,45 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>86688721</v>
+        <v>55947743</v>
       </c>
       <c r="B88" t="n">
-        <v>98382</v>
+        <v>91245</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Dammviken, Herrbergsliden, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>687192</v>
+        <v>686989</v>
       </c>
       <c r="R88" t="n">
-        <v>7074475</v>
+        <v>7074902</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9383,12 +9375,12 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -9397,29 +9389,32 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Karin Häggblad</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Karin Häggblad</t>
-        </is>
-      </c>
-      <c r="AY88" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>54482813</v>
+        <v>55947771</v>
       </c>
       <c r="B89" t="n">
-        <v>91245</v>
+        <v>78980</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9427,21 +9422,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9451,10 +9446,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>686758</v>
+        <v>686599</v>
       </c>
       <c r="R89" t="n">
-        <v>7074309</v>
+        <v>7074467</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9501,44 +9496,48 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY89" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>54482306</v>
+        <v>55947768</v>
       </c>
       <c r="B90" t="n">
-        <v>80118</v>
+        <v>80083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -9548,10 +9547,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>686968</v>
+        <v>686718</v>
       </c>
       <c r="R90" t="n">
-        <v>7074806</v>
+        <v>7074669</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9598,19 +9597,23 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY90" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>55947743</v>
+        <v>55947744</v>
       </c>
       <c r="B91" t="n">
         <v>91245</v>
@@ -9645,10 +9648,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>686989</v>
+        <v>687013</v>
       </c>
       <c r="R91" t="n">
-        <v>7074902</v>
+        <v>7074958</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -9711,32 +9714,32 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>55947744</v>
+        <v>54482306</v>
       </c>
       <c r="B92" t="n">
-        <v>91245</v>
+        <v>80118</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -9746,10 +9749,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>687013</v>
+        <v>686968</v>
       </c>
       <c r="R92" t="n">
-        <v>7074958</v>
+        <v>7074806</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -9796,26 +9799,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY92" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>55947771</v>
+        <v>54482813</v>
       </c>
       <c r="B93" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9823,21 +9822,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -9847,10 +9846,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>686599</v>
+        <v>686758</v>
       </c>
       <c r="R93" t="n">
-        <v>7074467</v>
+        <v>7074309</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -9897,61 +9896,65 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY93" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>55947768</v>
+        <v>86688721</v>
       </c>
       <c r="B94" t="n">
-        <v>80083</v>
+        <v>98382</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Dammviken, Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>686718</v>
+        <v>687192</v>
       </c>
       <c r="R94" t="n">
-        <v>7074669</v>
+        <v>7074475</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -9978,12 +9981,12 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2020-07-05</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -9992,25 +9995,22 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
+      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Karin Häggblad</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY94" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Karin Häggblad</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -10727,32 +10727,32 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>54482750</v>
+        <v>54482692</v>
       </c>
       <c r="B102" t="n">
-        <v>80112</v>
+        <v>91699</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6462</v>
+        <v>1209</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -10762,10 +10762,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>687173</v>
+        <v>686824</v>
       </c>
       <c r="R102" t="n">
-        <v>7074614</v>
+        <v>7074469</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -10824,32 +10824,32 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>54482807</v>
+        <v>54482750</v>
       </c>
       <c r="B103" t="n">
-        <v>91245</v>
+        <v>80112</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -10859,10 +10859,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>687135</v>
+        <v>687173</v>
       </c>
       <c r="R103" t="n">
-        <v>7074646</v>
+        <v>7074614</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -10921,32 +10921,32 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>54482692</v>
+        <v>54482807</v>
       </c>
       <c r="B104" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -10956,10 +10956,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>686824</v>
+        <v>687135</v>
       </c>
       <c r="R104" t="n">
-        <v>7074469</v>
+        <v>7074646</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11115,10 +11115,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>62031667</v>
+        <v>55947732</v>
       </c>
       <c r="B106" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -11126,34 +11126,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>686976</v>
+        <v>687057</v>
       </c>
       <c r="R106" t="n">
-        <v>7074930</v>
+        <v>7074691</v>
       </c>
       <c r="S106" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -11200,22 +11200,26 @@
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
-        </is>
-      </c>
-      <c r="AY106" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>54482640</v>
+        <v>55947770</v>
       </c>
       <c r="B107" t="n">
-        <v>91541</v>
+        <v>91263</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -11223,21 +11227,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -11247,10 +11251,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>687195</v>
+        <v>686637</v>
       </c>
       <c r="R107" t="n">
-        <v>7074520</v>
+        <v>7074567</v>
       </c>
       <c r="S107" t="n">
         <v>10</v>
@@ -11297,22 +11301,26 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY107" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>54482560</v>
+        <v>54482319</v>
       </c>
       <c r="B108" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11320,21 +11328,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -11344,10 +11352,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>686819</v>
+        <v>687165</v>
       </c>
       <c r="R108" t="n">
-        <v>7074573</v>
+        <v>7074591</v>
       </c>
       <c r="S108" t="n">
         <v>10</v>
@@ -11406,10 +11414,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>54482319</v>
+        <v>54482640</v>
       </c>
       <c r="B109" t="n">
-        <v>79012</v>
+        <v>91541</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11417,21 +11425,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>185</v>
+        <v>658</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -11441,10 +11449,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>687165</v>
+        <v>687195</v>
       </c>
       <c r="R109" t="n">
-        <v>7074591</v>
+        <v>7074520</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -11503,10 +11511,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>54482641</v>
+        <v>54482560</v>
       </c>
       <c r="B110" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11514,21 +11522,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -11538,10 +11546,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>687182</v>
+        <v>686819</v>
       </c>
       <c r="R110" t="n">
-        <v>7074584</v>
+        <v>7074573</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -11600,10 +11608,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>55947732</v>
+        <v>54482641</v>
       </c>
       <c r="B111" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11611,21 +11619,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -11635,10 +11643,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>687057</v>
+        <v>687182</v>
       </c>
       <c r="R111" t="n">
-        <v>7074691</v>
+        <v>7074584</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -11685,26 +11693,22 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY111" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>55947770</v>
+        <v>62031667</v>
       </c>
       <c r="B112" t="n">
-        <v>91263</v>
+        <v>91245</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11712,34 +11716,34 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>686637</v>
+        <v>686976</v>
       </c>
       <c r="R112" t="n">
-        <v>7074567</v>
+        <v>7074930</v>
       </c>
       <c r="S112" t="n">
         <v>10</v>
@@ -11766,12 +11770,12 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -11786,19 +11790,15 @@
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY112" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Åsa Michold</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -12105,10 +12105,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>54482811</v>
+        <v>55947760</v>
       </c>
       <c r="B116" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -12116,21 +12116,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -12140,10 +12140,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>686751</v>
+        <v>686865</v>
       </c>
       <c r="R116" t="n">
-        <v>7074598</v>
+        <v>7074457</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -12190,22 +12190,26 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY116" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY116" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>54482810</v>
+        <v>55947776</v>
       </c>
       <c r="B117" t="n">
-        <v>91245</v>
+        <v>91541</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -12213,21 +12217,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -12237,10 +12241,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>686823</v>
+        <v>686932</v>
       </c>
       <c r="R117" t="n">
-        <v>7074458</v>
+        <v>7074301</v>
       </c>
       <c r="S117" t="n">
         <v>10</v>
@@ -12287,22 +12291,26 @@
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY117" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>54482390</v>
+        <v>55947755</v>
       </c>
       <c r="B118" t="n">
-        <v>78980</v>
+        <v>91245</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -12310,21 +12318,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -12334,10 +12342,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>687148</v>
+        <v>687002</v>
       </c>
       <c r="R118" t="n">
-        <v>7074647</v>
+        <v>7074872</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -12384,22 +12392,26 @@
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY118" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY118" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>55947776</v>
+        <v>54482390</v>
       </c>
       <c r="B119" t="n">
-        <v>91541</v>
+        <v>78980</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -12407,21 +12419,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -12431,10 +12443,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>686932</v>
+        <v>687148</v>
       </c>
       <c r="R119" t="n">
-        <v>7074301</v>
+        <v>7074647</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -12481,23 +12493,19 @@
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX119" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY119" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>55947755</v>
+        <v>54482811</v>
       </c>
       <c r="B120" t="n">
         <v>91245</v>
@@ -12532,10 +12540,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>687002</v>
+        <v>686751</v>
       </c>
       <c r="R120" t="n">
-        <v>7074872</v>
+        <v>7074598</v>
       </c>
       <c r="S120" t="n">
         <v>10</v>
@@ -12582,26 +12590,22 @@
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY120" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>55947760</v>
+        <v>54482810</v>
       </c>
       <c r="B121" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12609,21 +12613,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -12633,10 +12637,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>686865</v>
+        <v>686823</v>
       </c>
       <c r="R121" t="n">
-        <v>7074457</v>
+        <v>7074458</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -12683,19 +12687,15 @@
       <c r="AT121" t="inlineStr"/>
       <c r="AW121" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX121" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY121" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -12800,10 +12800,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>55947730</v>
+        <v>55947729</v>
       </c>
       <c r="B123" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12811,21 +12811,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>687050</v>
+        <v>687123</v>
       </c>
       <c r="R123" t="n">
-        <v>7074666</v>
+        <v>7074638</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -12901,10 +12901,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>55947729</v>
+        <v>55947730</v>
       </c>
       <c r="B124" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12912,21 +12912,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>687123</v>
+        <v>687050</v>
       </c>
       <c r="R124" t="n">
-        <v>7074638</v>
+        <v>7074666</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -13002,48 +13002,48 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>55947751</v>
+        <v>59127906</v>
       </c>
       <c r="B125" t="n">
-        <v>91245</v>
+        <v>105396</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1202</v>
+        <v>221144</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Herrbergslidens O-sida strax V dammen över Husån, Ång</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>686971</v>
+        <v>687030</v>
       </c>
       <c r="R125" t="n">
-        <v>7075160</v>
+        <v>7074503</v>
       </c>
       <c r="S125" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -13067,12 +13067,17 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>1969-07-25</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>1969-07-25</t>
+        </is>
+      </c>
+      <c r="AC125" t="inlineStr">
+        <is>
+          <t>Observatör: Mascher, Jan W.</t>
         </is>
       </c>
       <c r="AD125" t="b">
@@ -13087,26 +13092,26 @@
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Stefan Grundström</t>
         </is>
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Via Stefan Grundström</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr">
         <is>
-          <t>Naturvärdesinventering Y-län</t>
+          <t>Ångermanlands Flora</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>54482559</v>
+        <v>54482644</v>
       </c>
       <c r="B126" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -13114,21 +13119,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -13138,10 +13143,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>686797</v>
+        <v>686791</v>
       </c>
       <c r="R126" t="n">
-        <v>7074565</v>
+        <v>7074583</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -13200,32 +13205,32 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>54482553</v>
+        <v>54482709</v>
       </c>
       <c r="B127" t="n">
-        <v>80083</v>
+        <v>79987</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -13235,10 +13240,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>687123</v>
+        <v>686960</v>
       </c>
       <c r="R127" t="n">
-        <v>7074647</v>
+        <v>7075141</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -13297,32 +13302,32 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>54482709</v>
+        <v>54482561</v>
       </c>
       <c r="B128" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -13332,10 +13337,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>686960</v>
+        <v>686644</v>
       </c>
       <c r="R128" t="n">
-        <v>7075141</v>
+        <v>7074622</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -13394,10 +13399,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>54482561</v>
+        <v>55947751</v>
       </c>
       <c r="B129" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -13405,21 +13410,21 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -13429,10 +13434,10 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>686644</v>
+        <v>686971</v>
       </c>
       <c r="R129" t="n">
-        <v>7074622</v>
+        <v>7075160</v>
       </c>
       <c r="S129" t="n">
         <v>10</v>
@@ -13479,22 +13484,26 @@
       <c r="AT129" t="inlineStr"/>
       <c r="AW129" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY129" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY129" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>54482644</v>
+        <v>54482559</v>
       </c>
       <c r="B130" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -13502,21 +13511,21 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -13526,10 +13535,10 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>686791</v>
+        <v>686797</v>
       </c>
       <c r="R130" t="n">
-        <v>7074583</v>
+        <v>7074565</v>
       </c>
       <c r="S130" t="n">
         <v>10</v>
@@ -13588,45 +13597,45 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>103509367</v>
+        <v>54482553</v>
       </c>
       <c r="B131" t="n">
-        <v>79987</v>
+        <v>80083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>687143</v>
+        <v>687123</v>
       </c>
       <c r="R131" t="n">
-        <v>7074245</v>
+        <v>7074647</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -13653,12 +13662,12 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -13669,41 +13678,26 @@
       </c>
       <c r="AG131" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ131" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK131" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO131" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>59127906</v>
+        <v>103509367</v>
       </c>
       <c r="B132" t="n">
-        <v>105396</v>
+        <v>79987</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13711,37 +13705,37 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>221144</v>
+        <v>6456</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Herrbergslidens O-sida strax V dammen över Husån, Ång</t>
+          <t>Herrbergsliden, Trehörningsjö, Örnsköldsvik, Ång</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>687030</v>
+        <v>687143</v>
       </c>
       <c r="R132" t="n">
-        <v>7074503</v>
+        <v>7074245</v>
       </c>
       <c r="S132" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -13765,17 +13759,12 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>1969-07-25</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>1969-07-25</t>
-        </is>
-      </c>
-      <c r="AC132" t="inlineStr">
-        <is>
-          <t>Observatör: Mascher, Jan W.</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -13786,23 +13775,34 @@
       </c>
       <c r="AG132" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK132" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO132" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
         <is>
-          <t>Stefan Grundström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Via Stefan Grundström</t>
-        </is>
-      </c>
-      <c r="AY132" t="inlineStr">
-        <is>
-          <t>Ångermanlands Flora</t>
-        </is>
-      </c>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -14004,10 +14004,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>54482554</v>
+        <v>54482645</v>
       </c>
       <c r="B135" t="n">
-        <v>80083</v>
+        <v>91541</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -14015,21 +14015,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -14039,10 +14039,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>687016</v>
+        <v>687110</v>
       </c>
       <c r="R135" t="n">
-        <v>7074800</v>
+        <v>7074341</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>54482645</v>
+        <v>54482554</v>
       </c>
       <c r="B137" t="n">
-        <v>91541</v>
+        <v>80083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -14209,21 +14209,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -14233,10 +14233,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>687110</v>
+        <v>687016</v>
       </c>
       <c r="R137" t="n">
-        <v>7074341</v>
+        <v>7074800</v>
       </c>
       <c r="S137" t="n">
         <v>10</v>
@@ -14295,32 +14295,32 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>54482812</v>
+        <v>55947764</v>
       </c>
       <c r="B138" t="n">
-        <v>91245</v>
+        <v>91210</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
@@ -14330,10 +14330,10 @@
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>686706</v>
+        <v>686769</v>
       </c>
       <c r="R138" t="n">
-        <v>7074655</v>
+        <v>7074590</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
@@ -14380,15 +14380,19 @@
       <c r="AT138" t="inlineStr"/>
       <c r="AW138" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX138" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY138" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY138" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -14493,45 +14497,45 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>55947740</v>
+        <v>62031666</v>
       </c>
       <c r="B140" t="n">
-        <v>80083</v>
+        <v>91699</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Herrbergsliden, Ång</t>
+          <t>Lillherrbergskullen, Ång</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>687035</v>
+        <v>686997</v>
       </c>
       <c r="R140" t="n">
-        <v>7074797</v>
+        <v>7074884</v>
       </c>
       <c r="S140" t="n">
         <v>10</v>
@@ -14558,12 +14562,12 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
+          <t>2016-11-02</t>
         </is>
       </c>
       <c r="AD140" t="b">
@@ -14578,26 +14582,22 @@
       <c r="AT140" t="inlineStr"/>
       <c r="AW140" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Åsa Michold</t>
         </is>
       </c>
       <c r="AX140" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY140" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Åsa Michold</t>
+        </is>
+      </c>
+      <c r="AY140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>62031666</v>
+        <v>62031664</v>
       </c>
       <c r="B141" t="n">
-        <v>91699</v>
+        <v>98361</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -14605,21 +14605,21 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
@@ -14629,10 +14629,10 @@
         </is>
       </c>
       <c r="Q141" t="n">
-        <v>686997</v>
+        <v>687082</v>
       </c>
       <c r="R141" t="n">
-        <v>7074884</v>
+        <v>7074790</v>
       </c>
       <c r="S141" t="n">
         <v>10</v>
@@ -14691,45 +14691,45 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>62031664</v>
+        <v>55947740</v>
       </c>
       <c r="B142" t="n">
-        <v>98361</v>
+        <v>80083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>Lillherrbergskullen, Ång</t>
+          <t>Herrbergsliden, Ång</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>687082</v>
+        <v>687035</v>
       </c>
       <c r="R142" t="n">
-        <v>7074790</v>
+        <v>7074797</v>
       </c>
       <c r="S142" t="n">
         <v>10</v>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>2016-11-02</t>
+          <t>2015-06-05</t>
         </is>
       </c>
       <c r="AD142" t="b">
@@ -14776,15 +14776,19 @@
       <c r="AT142" t="inlineStr"/>
       <c r="AW142" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX142" t="inlineStr">
         <is>
-          <t>Åsa Michold</t>
-        </is>
-      </c>
-      <c r="AY142" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY142" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -14889,32 +14893,32 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>55947764</v>
+        <v>54482812</v>
       </c>
       <c r="B144" t="n">
-        <v>91210</v>
+        <v>91245</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -14924,10 +14928,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>686769</v>
+        <v>686706</v>
       </c>
       <c r="R144" t="n">
-        <v>7074590</v>
+        <v>7074655</v>
       </c>
       <c r="S144" t="n">
         <v>10</v>
@@ -14974,19 +14978,15 @@
       <c r="AT144" t="inlineStr"/>
       <c r="AW144" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX144" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY144" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -15091,45 +15091,45 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>122745457</v>
+        <v>122745473</v>
       </c>
       <c r="B146" t="n">
-        <v>91245</v>
+        <v>91699</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>omr. SÖ, Ång</t>
+          <t>Översjön V, Ång</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>687052</v>
+        <v>687192</v>
       </c>
       <c r="R146" t="n">
-        <v>7074457</v>
+        <v>7074621</v>
       </c>
       <c r="S146" t="n">
         <v>10</v>
@@ -15394,45 +15394,45 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>122745473</v>
+        <v>122745457</v>
       </c>
       <c r="B149" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Översjön V, Ång</t>
+          <t>omr. SÖ, Ång</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>687192</v>
+        <v>687052</v>
       </c>
       <c r="R149" t="n">
-        <v>7074621</v>
+        <v>7074457</v>
       </c>
       <c r="S149" t="n">
         <v>10</v>
@@ -15596,10 +15596,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>122745446</v>
+        <v>122745421</v>
       </c>
       <c r="B151" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -15607,21 +15607,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -15631,10 +15631,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>687098</v>
+        <v>686959</v>
       </c>
       <c r="R151" t="n">
-        <v>7074216</v>
+        <v>7074205</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -15697,10 +15697,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>122745421</v>
+        <v>122745446</v>
       </c>
       <c r="B152" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -15708,21 +15708,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -15732,10 +15732,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>686959</v>
+        <v>687098</v>
       </c>
       <c r="R152" t="n">
-        <v>7074205</v>
+        <v>7074216</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -16310,10 +16310,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>55947748</v>
+        <v>55947739</v>
       </c>
       <c r="B158" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -16321,21 +16321,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -16345,10 +16345,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>687005</v>
+        <v>687012</v>
       </c>
       <c r="R158" t="n">
-        <v>7074994</v>
+        <v>7074860</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -16411,32 +16411,32 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>55947728</v>
+        <v>55947748</v>
       </c>
       <c r="B159" t="n">
-        <v>91210</v>
+        <v>91245</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
@@ -16446,10 +16446,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>687194</v>
+        <v>687005</v>
       </c>
       <c r="R159" t="n">
-        <v>7074493</v>
+        <v>7074994</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -16512,32 +16512,32 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>55947739</v>
+        <v>55947728</v>
       </c>
       <c r="B160" t="n">
-        <v>80083</v>
+        <v>91210</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
@@ -16547,10 +16547,10 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>687012</v>
+        <v>687194</v>
       </c>
       <c r="R160" t="n">
-        <v>7074860</v>
+        <v>7074493</v>
       </c>
       <c r="S160" t="n">
         <v>10</v>
@@ -16710,10 +16710,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>122745454</v>
+        <v>122745472</v>
       </c>
       <c r="B162" t="n">
-        <v>80083</v>
+        <v>91245</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -16721,34 +16721,34 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="P162" t="inlineStr">
         <is>
-          <t>Koloni- Ö, Ång</t>
+          <t>Hemmingtjärnen V, Ång</t>
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>687081</v>
+        <v>687189</v>
       </c>
       <c r="R162" t="n">
-        <v>7074357</v>
+        <v>7074613</v>
       </c>
       <c r="S162" t="n">
         <v>10</v>
@@ -17013,45 +17013,45 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>122745472</v>
+        <v>122745449</v>
       </c>
       <c r="B165" t="n">
-        <v>91245</v>
+        <v>80043</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1202</v>
+        <v>229497</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="P165" t="inlineStr">
         <is>
-          <t>Hemmingtjärnen V, Ång</t>
+          <t>Koloni- Ö, Ång</t>
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>687189</v>
+        <v>687093</v>
       </c>
       <c r="R165" t="n">
-        <v>7074613</v>
+        <v>7074223</v>
       </c>
       <c r="S165" t="n">
         <v>10</v>
@@ -17114,32 +17114,32 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>122745449</v>
+        <v>122745454</v>
       </c>
       <c r="B166" t="n">
-        <v>80043</v>
+        <v>80083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
@@ -17149,10 +17149,10 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>687093</v>
+        <v>687081</v>
       </c>
       <c r="R166" t="n">
-        <v>7074223</v>
+        <v>7074357</v>
       </c>
       <c r="S166" t="n">
         <v>10</v>
